--- a/bin/tabla_bonos_reacomodada.xlsx
+++ b/bin/tabla_bonos_reacomodada.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4AC56A-D3BE-4560-AC30-30CED5C93515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBDEC2C-89B0-428B-9BC4-0BE331A67943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
     <sheet name="Numericos" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$31:$E$51</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="603">
   <si>
     <t>Sección</t>
   </si>
@@ -1844,12 +1845,18 @@
   </si>
   <si>
     <t>30/6/2045</t>
+  </si>
+  <si>
+    <t>TIR sin ECL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1897,7 +1904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1946,11 +1953,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1967,7 +2009,27 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3036,6 +3098,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaBonos" displayName="TablaBonos" ref="A1:S65">
+  <autoFilter ref="A1:S65" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Bonos CUASIPAR"/>
+        <filter val="Bonos Discount"/>
+        <filter val="Bonos PAR"/>
+        <filter val="CER cupón cero"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sección"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción"/>
@@ -3382,9 +3454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomLeft" sqref="A1:S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3490,10 +3562,10 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2">
         <v>16340</v>
       </c>
       <c r="K2" s="8">
@@ -3502,13 +3574,13 @@
       <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2">
         <v>124.381</v>
       </c>
       <c r="N2" s="13">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2">
         <v>27924.13</v>
       </c>
       <c r="P2" s="13">
@@ -3517,10 +3589,10 @@
       <c r="Q2" s="13">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2">
         <v>7.96</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2">
         <v>9.2799999999999994</v>
       </c>
     </row>
@@ -3549,10 +3621,10 @@
       <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3">
         <v>95</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3">
         <v>31250</v>
       </c>
       <c r="K3" s="8">
@@ -3561,13 +3633,13 @@
       <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3">
         <v>5.431</v>
       </c>
       <c r="N3" s="13">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3">
         <v>33544.160000000003</v>
       </c>
       <c r="P3" s="13">
@@ -3576,10 +3648,10 @@
       <c r="Q3" s="13">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3">
         <v>3.97</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3">
         <v>4.66</v>
       </c>
     </row>
@@ -3608,10 +3680,10 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4">
         <v>20230</v>
       </c>
       <c r="K4" s="8">
@@ -3620,13 +3692,13 @@
       <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4">
         <v>3.5489999999999999</v>
       </c>
       <c r="N4" s="13">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4">
         <v>38606.080000000002</v>
       </c>
       <c r="P4" s="13">
@@ -3635,14 +3707,14 @@
       <c r="Q4" s="13">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4">
         <v>10.51</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4">
         <v>13.95</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3670,7 +3742,7 @@
       <c r="I5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5">
         <v>1739.5</v>
       </c>
       <c r="K5" s="8">
@@ -3701,7 +3773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -3729,7 +3801,7 @@
       <c r="I6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6">
         <v>6.1</v>
       </c>
       <c r="K6" s="8">
@@ -3760,7 +3832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3788,7 +3860,7 @@
       <c r="I7" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7">
         <v>3200</v>
       </c>
       <c r="K7" s="8">
@@ -3819,7 +3891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -3847,7 +3919,7 @@
       <c r="I8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8">
         <v>9000</v>
       </c>
       <c r="K8" s="8">
@@ -3903,10 +3975,10 @@
       <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9">
         <v>16480</v>
       </c>
       <c r="K9" s="8">
@@ -3915,13 +3987,13 @@
       <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9">
         <v>124.381</v>
       </c>
       <c r="N9" s="13">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9">
         <v>27924.13</v>
       </c>
       <c r="P9" s="13">
@@ -3930,10 +4002,10 @@
       <c r="Q9" s="13">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9">
         <v>7.98</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9">
         <v>9.2799999999999994</v>
       </c>
     </row>
@@ -3962,10 +4034,10 @@
       <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10">
         <v>95</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10">
         <v>31540</v>
       </c>
       <c r="K10" s="8">
@@ -3974,13 +4046,13 @@
       <c r="L10" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10">
         <v>5.431</v>
       </c>
       <c r="N10" s="13">
         <v>6.2E-2</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10">
         <v>33544.160000000003</v>
       </c>
       <c r="P10" s="13">
@@ -3989,14 +4061,14 @@
       <c r="Q10" s="13">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10">
         <v>3.99</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10">
         <v>4.66</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -4024,7 +4096,7 @@
       <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11">
         <v>2300</v>
       </c>
       <c r="K11" s="8">
@@ -4039,7 +4111,7 @@
       <c r="N11" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11">
         <v>62.627049999999997</v>
       </c>
       <c r="P11" s="13">
@@ -4048,14 +4120,14 @@
       <c r="Q11" s="13">
         <v>2.8308</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11">
         <v>0.41</v>
       </c>
       <c r="S11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -4080,10 +4152,10 @@
       <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12">
         <v>100</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12">
         <v>74220</v>
       </c>
       <c r="K12" s="8">
@@ -4092,13 +4164,13 @@
       <c r="L12" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12">
         <v>0.47799999999999998</v>
       </c>
       <c r="N12" s="13">
         <v>0.3508</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12">
         <v>100.48</v>
       </c>
       <c r="P12" s="13">
@@ -4107,14 +4179,14 @@
       <c r="Q12" s="13">
         <v>0.28589999999999999</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12">
         <v>1.95</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12">
         <v>2.61</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -4139,10 +4211,10 @@
       <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13">
         <v>100</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13">
         <v>55.7</v>
       </c>
       <c r="K13" s="8">
@@ -4151,13 +4223,13 @@
       <c r="L13" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13">
         <v>0.47799999999999998</v>
       </c>
       <c r="N13" s="13">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13">
         <v>100.48</v>
       </c>
       <c r="P13" s="13">
@@ -4166,14 +4238,14 @@
       <c r="Q13" s="13">
         <v>0.28179999999999999</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13">
         <v>1.96</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13">
         <v>7.22</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -4198,10 +4270,10 @@
       <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14">
         <v>100</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14">
         <v>74340</v>
       </c>
       <c r="K14" s="8">
@@ -4210,13 +4282,13 @@
       <c r="L14" t="s">
         <v>124</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14">
         <v>0.35799999999999998</v>
       </c>
       <c r="N14" s="13">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14">
         <v>100.36</v>
       </c>
       <c r="P14" s="13">
@@ -4225,14 +4297,14 @@
       <c r="Q14" s="13">
         <v>0.25440000000000002</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14">
         <v>2.13</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14">
         <v>1.17</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -4257,10 +4329,10 @@
       <c r="H15" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15">
         <v>55.15</v>
       </c>
       <c r="K15" s="8">
@@ -4269,13 +4341,13 @@
       <c r="L15" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15">
         <v>0.35799999999999998</v>
       </c>
       <c r="N15" s="13">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15">
         <v>100.36</v>
       </c>
       <c r="P15" s="13">
@@ -4284,14 +4356,14 @@
       <c r="Q15" s="13">
         <v>0.25669999999999998</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15">
         <v>2.13</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15">
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -4316,10 +4388,10 @@
       <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16">
         <v>100</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16">
         <v>59430</v>
       </c>
       <c r="K16" s="8">
@@ -4328,13 +4400,13 @@
       <c r="L16" t="s">
         <v>142</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16">
         <v>1.732</v>
       </c>
       <c r="N16" s="13">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16">
         <v>101.73</v>
       </c>
       <c r="P16" s="13">
@@ -4343,14 +4415,14 @@
       <c r="Q16" s="13">
         <v>0.18579999999999999</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16">
         <v>5.55</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16">
         <v>7.58</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -4375,10 +4447,10 @@
       <c r="H17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17">
         <v>100</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17">
         <v>44.07</v>
       </c>
       <c r="K17" s="8">
@@ -4387,13 +4459,13 @@
       <c r="L17" t="s">
         <v>142</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17">
         <v>1.732</v>
       </c>
       <c r="N17" s="13">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17">
         <v>101.73</v>
       </c>
       <c r="P17" s="13">
@@ -4402,14 +4474,14 @@
       <c r="Q17" s="13">
         <v>0.18679999999999999</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17">
         <v>5.54</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17">
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -4434,10 +4506,10 @@
       <c r="H18" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18">
         <v>100</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18">
         <v>60800</v>
       </c>
       <c r="K18" s="8">
@@ -4446,13 +4518,13 @@
       <c r="L18" t="s">
         <v>162</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18">
         <v>2.0310000000000001</v>
       </c>
       <c r="N18" s="13">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18">
         <v>102.03</v>
       </c>
       <c r="P18" s="13">
@@ -4461,14 +4533,14 @@
       <c r="Q18" s="13">
         <v>0.2109</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18">
         <v>4.4400000000000004</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18">
         <v>2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -4493,10 +4565,10 @@
       <c r="H19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19">
         <v>100</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19">
         <v>45.3</v>
       </c>
       <c r="K19" s="8">
@@ -4505,13 +4577,13 @@
       <c r="L19" t="s">
         <v>162</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19">
         <v>2.0310000000000001</v>
       </c>
       <c r="N19" s="13">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19">
         <v>102.03</v>
       </c>
       <c r="P19" s="13">
@@ -4520,14 +4592,14 @@
       <c r="Q19" s="13">
         <v>0.2109</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19">
         <v>4.4400000000000004</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19">
         <v>2.74</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -4552,10 +4624,10 @@
       <c r="H20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20">
         <v>100</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20">
         <v>55380</v>
       </c>
       <c r="K20" s="8">
@@ -4564,13 +4636,13 @@
       <c r="L20" t="s">
         <v>178</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20">
         <v>1.6719999999999999</v>
       </c>
       <c r="N20" s="13">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20">
         <v>101.67</v>
       </c>
       <c r="P20" s="13">
@@ -4579,14 +4651,14 @@
       <c r="Q20" s="13">
         <v>0.182</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20">
         <v>5.55</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20">
         <v>3.13</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -4611,10 +4683,10 @@
       <c r="H21" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21">
         <v>100</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21">
         <v>41.39</v>
       </c>
       <c r="K21" s="8">
@@ -4623,13 +4695,13 @@
       <c r="L21" t="s">
         <v>178</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21">
         <v>1.6719999999999999</v>
       </c>
       <c r="N21" s="13">
         <v>1.37E-2</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21">
         <v>101.67</v>
       </c>
       <c r="P21" s="13">
@@ -4638,14 +4710,14 @@
       <c r="Q21" s="13">
         <v>0.18140000000000001</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21">
         <v>5.56</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21">
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -4670,10 +4742,10 @@
       <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22">
         <v>100</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22">
         <v>77770</v>
       </c>
       <c r="K22" s="8">
@@ -4682,13 +4754,13 @@
       <c r="L22" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22">
         <v>0.47799999999999998</v>
       </c>
       <c r="N22" s="13">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22">
         <v>100.48</v>
       </c>
       <c r="P22" s="13">
@@ -4697,14 +4769,14 @@
       <c r="Q22" s="13">
         <v>0.25950000000000001</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22">
         <v>2.0099999999999998</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22">
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -4729,10 +4801,10 @@
       <c r="H23" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23">
         <v>58.14</v>
       </c>
       <c r="K23" s="8">
@@ -4741,13 +4813,13 @@
       <c r="L23" t="s">
         <v>104</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23">
         <v>0.47799999999999998</v>
       </c>
       <c r="N23" s="13">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23">
         <v>100.48</v>
       </c>
       <c r="P23" s="13">
@@ -4756,14 +4828,14 @@
       <c r="Q23" s="13">
         <v>0.25769999999999998</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23">
         <v>2.0099999999999998</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23">
         <v>7.58</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -4788,10 +4860,10 @@
       <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24">
         <v>100</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24">
         <v>76540</v>
       </c>
       <c r="K24" s="8">
@@ -4800,13 +4872,13 @@
       <c r="L24" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24">
         <v>0.35799999999999998</v>
       </c>
       <c r="N24" s="13">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24">
         <v>100.36</v>
       </c>
       <c r="P24" s="13">
@@ -4815,14 +4887,14 @@
       <c r="Q24" s="13">
         <v>0.2394</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24">
         <v>2.1800000000000002</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24">
         <v>1.35</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -4847,10 +4919,10 @@
       <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25">
         <v>100</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25">
         <v>56.76</v>
       </c>
       <c r="K25" s="8">
@@ -4859,13 +4931,13 @@
       <c r="L25" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25">
         <v>0.35799999999999998</v>
       </c>
       <c r="N25" s="13">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25">
         <v>100.36</v>
       </c>
       <c r="P25" s="13">
@@ -4874,14 +4946,14 @@
       <c r="Q25" s="13">
         <v>0.24179999999999999</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25">
         <v>2.17</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25">
         <v>7.22</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -4906,10 +4978,10 @@
       <c r="H26" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26">
         <v>100</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26">
         <v>59400</v>
       </c>
       <c r="K26" s="8">
@@ -4918,13 +4990,13 @@
       <c r="L26" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26">
         <v>1.732</v>
       </c>
       <c r="N26" s="13">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26">
         <v>101.73</v>
       </c>
       <c r="P26" s="13">
@@ -4933,14 +5005,14 @@
       <c r="Q26" s="13">
         <v>0.18590000000000001</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26">
         <v>5.55</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -4965,10 +5037,10 @@
       <c r="H27" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27">
         <v>100</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27">
         <v>44.1</v>
       </c>
       <c r="K27" s="8">
@@ -4977,13 +5049,13 @@
       <c r="L27" t="s">
         <v>142</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27">
         <v>1.732</v>
       </c>
       <c r="N27" s="13">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27">
         <v>101.73</v>
       </c>
       <c r="P27" s="13">
@@ -4992,14 +5064,14 @@
       <c r="Q27" s="13">
         <v>0.18659999999999999</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27">
         <v>5.54</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27">
         <v>9.1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -5024,10 +5096,10 @@
       <c r="H28" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28">
         <v>100</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28">
         <v>65190</v>
       </c>
       <c r="K28" s="8">
@@ -5036,13 +5108,13 @@
       <c r="L28" t="s">
         <v>162</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28">
         <v>2.0310000000000001</v>
       </c>
       <c r="N28" s="13">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28">
         <v>102.03</v>
       </c>
       <c r="P28" s="13">
@@ -5051,14 +5123,14 @@
       <c r="Q28" s="13">
         <v>0.19400000000000001</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28">
         <v>4.6100000000000003</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28">
         <v>2.74</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -5083,10 +5155,10 @@
       <c r="H29" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29">
         <v>100</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29">
         <v>48</v>
       </c>
       <c r="K29" s="8">
@@ -5095,13 +5167,13 @@
       <c r="L29" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29">
         <v>2.0310000000000001</v>
       </c>
       <c r="N29" s="13">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29">
         <v>102.03</v>
       </c>
       <c r="P29" s="13">
@@ -5110,14 +5182,14 @@
       <c r="Q29" s="13">
         <v>0.19689999999999999</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29">
         <v>4.58</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29">
         <v>2.74</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -5142,10 +5214,10 @@
       <c r="H30" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30">
         <v>100</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30">
         <v>55710</v>
       </c>
       <c r="K30" s="8">
@@ -5154,13 +5226,13 @@
       <c r="L30" t="s">
         <v>178</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30">
         <v>1.6719999999999999</v>
       </c>
       <c r="N30" s="13">
         <v>1.32E-2</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30">
         <v>101.67</v>
       </c>
       <c r="P30" s="13">
@@ -5169,14 +5241,14 @@
       <c r="Q30" s="13">
         <v>0.18079999999999999</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30">
         <v>5.56</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30">
         <v>3.13</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -5201,10 +5273,10 @@
       <c r="H31" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31">
         <v>100</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31">
         <v>40.5</v>
       </c>
       <c r="K31" s="8">
@@ -5213,13 +5285,13 @@
       <c r="L31" t="s">
         <v>178</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31">
         <v>1.6719999999999999</v>
       </c>
       <c r="N31" s="13">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31">
         <v>101.67</v>
       </c>
       <c r="P31" s="13">
@@ -5228,14 +5300,14 @@
       <c r="Q31" s="13">
         <v>0.1857</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31">
         <v>5.49</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31">
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -5260,10 +5332,10 @@
       <c r="H32" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32">
         <v>100</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32">
         <v>61890</v>
       </c>
       <c r="K32" s="8">
@@ -5272,13 +5344,13 @@
       <c r="L32" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32">
         <v>1.732</v>
       </c>
       <c r="N32" s="13">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32">
         <v>101.73</v>
       </c>
       <c r="P32" s="13">
@@ -5287,14 +5359,14 @@
       <c r="Q32" s="13">
         <v>0.18260000000000001</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32">
         <v>4.59</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32">
         <v>7.58</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -5319,10 +5391,10 @@
       <c r="H33" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33">
         <v>100</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33">
         <v>63.75</v>
       </c>
       <c r="K33" s="8">
@@ -5331,13 +5403,13 @@
       <c r="L33" t="s">
         <v>270</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33">
         <v>3.1859999999999999</v>
       </c>
       <c r="N33" s="13">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33">
         <v>103.19</v>
       </c>
       <c r="P33" s="13">
@@ -5346,14 +5418,14 @@
       <c r="Q33" s="13">
         <v>0.49349999999999999</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33">
         <v>1.48</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33">
         <v>1.02</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>278</v>
       </c>
@@ -5378,10 +5450,10 @@
       <c r="H34" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34">
         <v>100</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34">
         <v>411</v>
       </c>
       <c r="K34" s="8">
@@ -5390,13 +5462,13 @@
       <c r="L34" t="s">
         <v>162</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34">
         <v>0.85899999999999999</v>
       </c>
       <c r="N34" s="13">
         <v>4.19E-2</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34">
         <v>405.22</v>
       </c>
       <c r="P34" s="13">
@@ -5405,14 +5477,14 @@
       <c r="Q34" s="13">
         <v>1.06E-2</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34">
         <v>0.46</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34">
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>278</v>
       </c>
@@ -5437,10 +5509,10 @@
       <c r="H35" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35">
         <v>100</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35">
         <v>1543</v>
       </c>
       <c r="K35" s="8">
@@ -5449,13 +5521,13 @@
       <c r="L35" t="s">
         <v>294</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35">
         <v>10.090999999999999</v>
       </c>
       <c r="N35" s="13">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35">
         <v>1522.21</v>
       </c>
       <c r="P35" s="13">
@@ -5464,14 +5536,14 @@
       <c r="Q35" s="13">
         <v>-0.1668</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>278</v>
       </c>
@@ -5496,10 +5568,10 @@
       <c r="H36" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36">
         <v>100</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36">
         <v>510.2</v>
       </c>
       <c r="K36" s="8">
@@ -5508,13 +5580,13 @@
       <c r="L36" t="s">
         <v>305</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36">
         <v>4.2610000000000001</v>
       </c>
       <c r="N36" s="13">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36">
         <v>502.29</v>
       </c>
       <c r="P36" s="13">
@@ -5523,14 +5595,14 @@
       <c r="Q36" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -5555,10 +5627,10 @@
       <c r="H37" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37">
         <v>100</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37">
         <v>509.6</v>
       </c>
       <c r="K37" s="8">
@@ -5567,13 +5639,13 @@
       <c r="L37" t="s">
         <v>162</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37">
         <v>8.0549999999999997</v>
       </c>
       <c r="N37" s="13">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37">
         <v>506.08</v>
       </c>
       <c r="P37" s="13">
@@ -5582,14 +5654,14 @@
       <c r="Q37" s="13">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37">
         <v>0.6</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37">
         <v>0.61</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -5614,10 +5686,10 @@
       <c r="H38" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38">
         <v>100</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38">
         <v>4520</v>
       </c>
       <c r="K38" s="8">
@@ -5626,13 +5698,13 @@
       <c r="L38" t="s">
         <v>305</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38">
         <v>31.742999999999999</v>
       </c>
       <c r="N38" s="13">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38">
         <v>4495.54</v>
       </c>
       <c r="P38" s="13">
@@ -5641,14 +5713,14 @@
       <c r="Q38" s="13">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38">
         <v>0.8</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S38">
         <v>0.81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -5673,10 +5745,10 @@
       <c r="H39" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39">
         <v>100</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39">
         <v>850</v>
       </c>
       <c r="K39" s="8">
@@ -5685,13 +5757,13 @@
       <c r="L39" t="s">
         <v>338</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39">
         <v>2.2759999999999998</v>
       </c>
       <c r="N39" s="13">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39">
         <v>877.69</v>
       </c>
       <c r="P39" s="13">
@@ -5700,14 +5772,14 @@
       <c r="Q39" s="13">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39">
         <v>1.32</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S39">
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>278</v>
       </c>
@@ -5732,10 +5804,10 @@
       <c r="H40" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40">
         <v>100</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40">
         <v>1729</v>
       </c>
       <c r="K40" s="8">
@@ -5744,13 +5816,13 @@
       <c r="L40" t="s">
         <v>349</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40">
         <v>5.1840000000000002</v>
       </c>
       <c r="N40" s="13">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40">
         <v>1799.52</v>
       </c>
       <c r="P40" s="13">
@@ -5759,14 +5831,14 @@
       <c r="Q40" s="13">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40">
         <v>1.29</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S40">
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>278</v>
       </c>
@@ -5791,10 +5863,10 @@
       <c r="H41" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41">
         <v>90</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41">
         <v>1488</v>
       </c>
       <c r="K41" s="8">
@@ -5803,13 +5875,13 @@
       <c r="L41" t="s">
         <v>359</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41">
         <v>5.2480000000000002</v>
       </c>
       <c r="N41" s="13">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41">
         <v>1799.58</v>
       </c>
       <c r="P41" s="13">
@@ -5818,14 +5890,14 @@
       <c r="Q41" s="13">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R41">
         <v>2.16</v>
       </c>
-      <c r="S41" s="14">
+      <c r="S41">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5850,10 +5922,10 @@
       <c r="H42" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42">
         <v>100</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42">
         <v>667.9</v>
       </c>
       <c r="K42" s="8">
@@ -5862,13 +5934,13 @@
       <c r="L42" t="s">
         <v>369</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42">
         <v>1.8560000000000001</v>
       </c>
       <c r="N42" s="13">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42">
         <v>864.12</v>
       </c>
       <c r="P42" s="13">
@@ -5877,10 +5949,10 @@
       <c r="Q42" s="13">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R42">
         <v>4.51</v>
       </c>
-      <c r="S42" s="14">
+      <c r="S42">
         <v>4.91</v>
       </c>
     </row>
@@ -5909,10 +5981,10 @@
       <c r="H43" t="s">
         <v>381</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43">
         <v>100</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43">
         <v>158.69999999999999</v>
       </c>
       <c r="K43" s="8">
@@ -5927,7 +5999,7 @@
       <c r="N43" t="s">
         <v>66</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43">
         <v>100</v>
       </c>
       <c r="P43" s="13">
@@ -5936,10 +6008,10 @@
       <c r="Q43" s="13">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43">
         <v>0.98</v>
       </c>
-      <c r="S43" s="14">
+      <c r="S43">
         <v>1</v>
       </c>
     </row>
@@ -5968,10 +6040,10 @@
       <c r="H44" t="s">
         <v>381</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44">
         <v>100</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44">
         <v>181.75</v>
       </c>
       <c r="K44" s="8">
@@ -5986,7 +6058,7 @@
       <c r="N44" t="s">
         <v>66</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44">
         <v>100</v>
       </c>
       <c r="P44" s="13">
@@ -5995,10 +6067,10 @@
       <c r="Q44" s="13">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R44">
         <v>1.94</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S44">
         <v>2</v>
       </c>
     </row>
@@ -6027,10 +6099,10 @@
       <c r="H45" t="s">
         <v>381</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45">
         <v>170</v>
       </c>
       <c r="K45" s="8">
@@ -6045,7 +6117,7 @@
       <c r="N45" t="s">
         <v>66</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45">
         <v>100</v>
       </c>
       <c r="P45" s="13">
@@ -6054,10 +6126,10 @@
       <c r="Q45" s="13">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45">
         <v>2.91</v>
       </c>
-      <c r="S45" s="14">
+      <c r="S45">
         <v>3</v>
       </c>
     </row>
@@ -6086,10 +6158,10 @@
       <c r="H46" t="s">
         <v>381</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46">
         <v>100</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46">
         <v>148</v>
       </c>
       <c r="K46" s="8">
@@ -6104,7 +6176,7 @@
       <c r="N46" t="s">
         <v>66</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46">
         <v>201.87</v>
       </c>
       <c r="P46" s="13">
@@ -6113,10 +6185,10 @@
       <c r="Q46" s="13">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46">
         <v>3.84</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46">
         <v>4</v>
       </c>
     </row>
@@ -6145,10 +6217,10 @@
       <c r="H47" t="s">
         <v>381</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47">
         <v>100</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47">
         <v>136.75</v>
       </c>
       <c r="K47" s="8">
@@ -6163,7 +6235,7 @@
       <c r="N47" t="s">
         <v>66</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47">
         <v>150.06</v>
       </c>
       <c r="P47" s="13">
@@ -6172,10 +6244,10 @@
       <c r="Q47" s="13">
         <v>6.59E-2</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47">
         <v>1.41</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S47">
         <v>1.75</v>
       </c>
     </row>
@@ -6204,10 +6276,10 @@
       <c r="H48" t="s">
         <v>381</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48">
         <v>100</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48">
         <v>128</v>
       </c>
       <c r="K48" s="8">
@@ -6222,7 +6294,7 @@
       <c r="N48" t="s">
         <v>66</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48">
         <v>149.24</v>
       </c>
       <c r="P48" s="13">
@@ -6231,10 +6303,10 @@
       <c r="Q48" s="13">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R48">
         <v>2.38</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S48">
         <v>2.46</v>
       </c>
     </row>
@@ -6263,10 +6335,10 @@
       <c r="H49" t="s">
         <v>381</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49">
         <v>100</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49">
         <v>115.5</v>
       </c>
       <c r="K49" s="8">
@@ -6281,7 +6353,7 @@
       <c r="N49" t="s">
         <v>66</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49">
         <v>149.24</v>
       </c>
       <c r="P49" s="13">
@@ -6290,10 +6362,10 @@
       <c r="Q49" s="13">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R49">
         <v>3.33</v>
       </c>
-      <c r="S49" s="14">
+      <c r="S49">
         <v>3.46</v>
       </c>
     </row>
@@ -6322,10 +6394,10 @@
       <c r="H50" t="s">
         <v>381</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50">
         <v>100</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50">
         <v>109.5</v>
       </c>
       <c r="K50" s="8">
@@ -6340,7 +6412,7 @@
       <c r="N50" t="s">
         <v>66</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50">
         <v>120.02</v>
       </c>
       <c r="P50" s="13">
@@ -6349,14 +6421,14 @@
       <c r="Q50" s="13">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R50">
         <v>1.7</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S50">
         <v>1.75</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>439</v>
       </c>
@@ -6381,10 +6453,10 @@
       <c r="H51" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51">
         <v>100</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51">
         <v>105250</v>
       </c>
       <c r="K51" s="8">
@@ -6393,13 +6465,13 @@
       <c r="L51" t="s">
         <v>444</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51">
         <v>3364.2959999999998</v>
       </c>
       <c r="N51" s="13">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O51">
         <v>101951.74</v>
       </c>
       <c r="P51" s="13">
@@ -6408,14 +6480,14 @@
       <c r="Q51" s="13">
         <v>-0.14990000000000001</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R51">
         <v>0.18</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S51">
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>439</v>
       </c>
@@ -6440,10 +6512,10 @@
       <c r="H52" t="s">
         <v>41</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52">
         <v>100</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52">
         <v>115950</v>
       </c>
       <c r="K52" s="8">
@@ -6452,13 +6524,13 @@
       <c r="L52" t="s">
         <v>444</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52">
         <v>2917.797</v>
       </c>
       <c r="N52" s="13">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O52">
         <v>117123.51</v>
       </c>
       <c r="P52" s="13">
@@ -6467,14 +6539,14 @@
       <c r="Q52" s="13">
         <v>0</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R52">
         <v>0</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>439</v>
       </c>
@@ -6499,10 +6571,10 @@
       <c r="H53" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53">
         <v>100</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53">
         <v>116500</v>
       </c>
       <c r="K53" s="8">
@@ -6511,13 +6583,13 @@
       <c r="L53" t="s">
         <v>444</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53">
         <v>3364.2959999999998</v>
       </c>
       <c r="N53" s="13">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O53">
         <v>101951.74</v>
       </c>
       <c r="P53" s="13">
@@ -6526,14 +6598,14 @@
       <c r="Q53" s="13">
         <v>-0.1784</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R53">
         <v>0.64</v>
       </c>
-      <c r="S53" s="14">
+      <c r="S53">
         <v>0.59</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>473</v>
       </c>
@@ -6558,10 +6630,10 @@
       <c r="H54" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54">
         <v>100</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54">
         <v>109750</v>
       </c>
       <c r="K54" s="8">
@@ -6570,13 +6642,13 @@
       <c r="L54" t="s">
         <v>478</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54">
         <v>0.126</v>
       </c>
       <c r="N54" s="13">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O54">
         <v>100.13</v>
       </c>
       <c r="P54" s="13">
@@ -6585,14 +6657,14 @@
       <c r="Q54" s="13">
         <v>-0.21579999999999999</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R54">
         <v>0.85</v>
       </c>
-      <c r="S54" s="14">
+      <c r="S54">
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>473</v>
       </c>
@@ -6617,10 +6689,10 @@
       <c r="H55" t="s">
         <v>381</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55">
         <v>100</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55">
         <v>107000</v>
       </c>
       <c r="K55" s="8">
@@ -6629,13 +6701,13 @@
       <c r="L55" t="s">
         <v>489</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" s="13">
         <v>0</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O55">
         <v>100</v>
       </c>
       <c r="P55" s="13">
@@ -6644,14 +6716,14 @@
       <c r="Q55" s="13">
         <v>0.255</v>
       </c>
-      <c r="R55" s="14">
+      <c r="R55">
         <v>0.88</v>
       </c>
-      <c r="S55" s="14">
+      <c r="S55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>493</v>
       </c>
@@ -6676,10 +6748,10 @@
       <c r="H56" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56">
         <v>100</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56">
         <v>124490</v>
       </c>
       <c r="K56" s="8">
@@ -6688,13 +6760,13 @@
       <c r="L56" t="s">
         <v>500</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56">
         <v>2.4443999999999999</v>
       </c>
       <c r="N56" s="13">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O56">
         <v>102.444</v>
       </c>
       <c r="P56" s="13">
@@ -6703,14 +6775,14 @@
       <c r="Q56" s="13">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R56">
         <v>2.69</v>
       </c>
-      <c r="S56" s="14">
+      <c r="S56">
         <v>2.86</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>493</v>
       </c>
@@ -6735,10 +6807,10 @@
       <c r="H57" t="s">
         <v>25</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57">
         <v>100</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57">
         <v>111000</v>
       </c>
       <c r="K57" s="8">
@@ -6747,13 +6819,13 @@
       <c r="L57" t="s">
         <v>500</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57">
         <v>2.4443999999999999</v>
       </c>
       <c r="N57" s="13">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O57">
         <v>102.444</v>
       </c>
       <c r="P57" s="13">
@@ -6762,14 +6834,14 @@
       <c r="Q57" s="13">
         <v>0.1336</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R57">
         <v>2.61</v>
       </c>
-      <c r="S57" s="14">
+      <c r="S57">
         <v>2.86</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>493</v>
       </c>
@@ -6794,10 +6866,10 @@
       <c r="H58" t="s">
         <v>25</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58">
         <v>100</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58">
         <v>101800</v>
       </c>
       <c r="K58" s="8">
@@ -6806,13 +6878,13 @@
       <c r="L58" t="s">
         <v>500</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58">
         <v>2.4443999999999999</v>
       </c>
       <c r="N58" s="13">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O58">
         <v>102.444</v>
       </c>
       <c r="P58" s="13">
@@ -6821,14 +6893,14 @@
       <c r="Q58" s="13">
         <v>0.16950000000000001</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R58">
         <v>2.5499999999999998</v>
       </c>
-      <c r="S58" s="14">
+      <c r="S58">
         <v>2.86</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>493</v>
       </c>
@@ -6853,10 +6925,10 @@
       <c r="H59" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59">
         <v>100</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59">
         <v>97560</v>
       </c>
       <c r="K59" s="8">
@@ -6865,13 +6937,13 @@
       <c r="L59" t="s">
         <v>500</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59">
         <v>2.4443999999999999</v>
       </c>
       <c r="N59" s="13">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O59">
         <v>102.444</v>
       </c>
       <c r="P59" s="13">
@@ -6880,14 +6952,14 @@
       <c r="Q59" s="13">
         <v>0.18759999999999999</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R59">
         <v>2.52</v>
       </c>
-      <c r="S59" s="14">
+      <c r="S59">
         <v>2.86</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -6912,10 +6984,10 @@
       <c r="H60" t="s">
         <v>381</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60">
         <v>100</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60">
         <v>127880</v>
       </c>
       <c r="K60" s="8">
@@ -6924,13 +6996,13 @@
       <c r="L60" t="s">
         <v>463</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60">
         <v>0</v>
       </c>
       <c r="N60" s="13">
         <v>0</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O60">
         <v>100</v>
       </c>
       <c r="P60" s="13">
@@ -6939,14 +7011,14 @@
       <c r="Q60" s="13">
         <v>9.4E-2</v>
       </c>
-      <c r="R60" s="14">
+      <c r="R60">
         <v>0.51</v>
       </c>
-      <c r="S60" s="14">
+      <c r="S60">
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>493</v>
       </c>
@@ -6971,10 +7043,10 @@
       <c r="H61" t="s">
         <v>381</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61">
         <v>100</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61">
         <v>94.25</v>
       </c>
       <c r="K61" s="8">
@@ -6983,13 +7055,13 @@
       <c r="L61" t="s">
         <v>463</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61">
         <v>0</v>
       </c>
       <c r="N61" s="13">
         <v>0</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O61">
         <v>100</v>
       </c>
       <c r="P61" s="13">
@@ -6998,14 +7070,14 @@
       <c r="Q61" s="13">
         <v>0.1003</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R61">
         <v>0.59</v>
       </c>
-      <c r="S61" s="14">
+      <c r="S61">
         <v>0.62</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>493</v>
       </c>
@@ -7030,10 +7102,10 @@
       <c r="H62" t="s">
         <v>381</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62">
         <v>100</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62">
         <v>94.8</v>
       </c>
       <c r="K62" s="8">
@@ -7042,13 +7114,13 @@
       <c r="L62" t="s">
         <v>463</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M62">
         <v>0</v>
       </c>
       <c r="N62" s="13">
         <v>0</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O62">
         <v>100</v>
       </c>
       <c r="P62" s="13">
@@ -7057,14 +7129,14 @@
       <c r="Q62" s="13">
         <v>0.09</v>
       </c>
-      <c r="R62" s="14">
+      <c r="R62">
         <v>0.59</v>
       </c>
-      <c r="S62" s="14">
+      <c r="S62">
         <v>0.62</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>493</v>
       </c>
@@ -7089,10 +7161,10 @@
       <c r="H63" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63">
         <v>100</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63">
         <v>102800</v>
       </c>
       <c r="K63" s="8">
@@ -7101,13 +7173,13 @@
       <c r="L63" t="s">
         <v>554</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63">
         <v>0.95</v>
       </c>
       <c r="N63" s="13">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O63">
         <v>100.95</v>
       </c>
       <c r="P63" s="13">
@@ -7116,14 +7188,14 @@
       <c r="Q63" s="13">
         <v>0.22289999999999999</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R63">
         <v>1.44</v>
       </c>
-      <c r="S63" s="14">
+      <c r="S63">
         <v>1.62</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>493</v>
       </c>
@@ -7148,10 +7220,10 @@
       <c r="H64" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64">
         <v>100</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64">
         <v>76</v>
       </c>
       <c r="K64" s="8">
@@ -7160,13 +7232,13 @@
       <c r="L64" t="s">
         <v>554</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M64">
         <v>0.95</v>
       </c>
       <c r="N64" s="13">
         <v>0.04</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O64">
         <v>100.95</v>
       </c>
       <c r="P64" s="13">
@@ -7175,14 +7247,14 @@
       <c r="Q64" s="13">
         <v>0.22889999999999999</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R64">
         <v>1.44</v>
       </c>
-      <c r="S64" s="14">
+      <c r="S64">
         <v>1.62</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>493</v>
       </c>
@@ -7207,10 +7279,10 @@
       <c r="H65" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65">
         <v>100</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65">
         <v>76.599999999999994</v>
       </c>
       <c r="K65" s="8">
@@ -7219,13 +7291,13 @@
       <c r="L65" t="s">
         <v>554</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65">
         <v>0.95</v>
       </c>
       <c r="N65" s="13">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O65">
         <v>100.95</v>
       </c>
       <c r="P65" s="13">
@@ -7234,10 +7306,10 @@
       <c r="Q65" s="13">
         <v>0.22289999999999999</v>
       </c>
-      <c r="R65" s="14">
+      <c r="R65">
         <v>1.44</v>
       </c>
-      <c r="S65" s="14">
+      <c r="S65">
         <v>1.62</v>
       </c>
     </row>
@@ -13596,4 +13668,576 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EB33B5-3159-4480-BE34-6996F76CA9E9}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="23">
+        <v>50770</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="23">
+        <v>45565</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="15">
+        <v>100</v>
+      </c>
+      <c r="J2" s="15">
+        <v>16340</v>
+      </c>
+      <c r="K2" s="23">
+        <v>45471</v>
+      </c>
+      <c r="L2" s="15">
+        <v>27924.13</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="N2" s="27">
+        <v>6.6996882730528617E-2</v>
+      </c>
+      <c r="O2" s="15">
+        <v>7.96</v>
+      </c>
+      <c r="P2" s="19">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="25">
+        <v>48944</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="25">
+        <v>45657</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="17">
+        <v>95</v>
+      </c>
+      <c r="J3" s="17">
+        <v>31250</v>
+      </c>
+      <c r="K3" s="25">
+        <v>45471</v>
+      </c>
+      <c r="L3" s="17">
+        <v>33544.160000000003</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="N3" s="28">
+        <v>9.5447733191835298E-3</v>
+      </c>
+      <c r="O3" s="17">
+        <v>3.97</v>
+      </c>
+      <c r="P3" s="18">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="23">
+        <v>53327</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="23">
+        <v>45657</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="15">
+        <v>100</v>
+      </c>
+      <c r="J4" s="15">
+        <v>20230</v>
+      </c>
+      <c r="K4" s="23">
+        <v>45471</v>
+      </c>
+      <c r="L4" s="15">
+        <v>38606.080000000002</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="N4" s="27">
+        <v>5.24930618608049E-2</v>
+      </c>
+      <c r="O4" s="15">
+        <v>10.51</v>
+      </c>
+      <c r="P4" s="19">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="25">
+        <v>45838</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="25">
+        <v>45838</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" s="17">
+        <v>100</v>
+      </c>
+      <c r="J5" s="17">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="K5" s="25">
+        <v>45471</v>
+      </c>
+      <c r="L5" s="17">
+        <v>100</v>
+      </c>
+      <c r="M5" s="26">
+        <v>1.587</v>
+      </c>
+      <c r="N5" s="28">
+        <v>-0.1128680621204154</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="P5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="23">
+        <v>46203</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="23">
+        <v>46203</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="I6" s="15">
+        <v>100</v>
+      </c>
+      <c r="J6" s="15">
+        <v>181.75</v>
+      </c>
+      <c r="K6" s="23">
+        <v>45471</v>
+      </c>
+      <c r="L6" s="15">
+        <v>100</v>
+      </c>
+      <c r="M6" s="24">
+        <v>1.8174999999999999</v>
+      </c>
+      <c r="N6" s="27">
+        <v>-6.1065030510503382E-2</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1.94</v>
+      </c>
+      <c r="P6" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="25">
+        <v>46568</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="25">
+        <v>46568</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="I7" s="17">
+        <v>100</v>
+      </c>
+      <c r="J7" s="17">
+        <v>170</v>
+      </c>
+      <c r="K7" s="25">
+        <v>45471</v>
+      </c>
+      <c r="L7" s="17">
+        <v>100</v>
+      </c>
+      <c r="M7" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="N7" s="28">
+        <v>-1.9956101311708219E-2</v>
+      </c>
+      <c r="O7" s="17">
+        <v>2.91</v>
+      </c>
+      <c r="P7" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" s="23">
+        <v>46934</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="23">
+        <v>46934</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="I8" s="15">
+        <v>100</v>
+      </c>
+      <c r="J8" s="15">
+        <v>148</v>
+      </c>
+      <c r="K8" s="23">
+        <v>45471</v>
+      </c>
+      <c r="L8" s="15">
+        <v>201.87</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1.8022380829635139E-2</v>
+      </c>
+      <c r="O8" s="15">
+        <v>3.84</v>
+      </c>
+      <c r="P8" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="25">
+        <v>46006</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="25">
+        <v>46006</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="I9" s="17">
+        <v>100</v>
+      </c>
+      <c r="J9" s="17">
+        <v>136.75</v>
+      </c>
+      <c r="K9" s="25">
+        <v>45471</v>
+      </c>
+      <c r="L9" s="17">
+        <v>150.06</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0.9113</v>
+      </c>
+      <c r="N9" s="28">
+        <v>-7.8124402058578957E-2</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1.41</v>
+      </c>
+      <c r="P9" s="18">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="23">
+        <v>46371</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="23">
+        <v>46371</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="I10" s="15">
+        <v>100</v>
+      </c>
+      <c r="J10" s="15">
+        <v>128</v>
+      </c>
+      <c r="K10" s="23">
+        <v>45471</v>
+      </c>
+      <c r="L10" s="15">
+        <v>149.24</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="N10" s="27">
+        <v>-3.6358616677768962E-2</v>
+      </c>
+      <c r="O10" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="P10" s="19">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="25">
+        <v>46736</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="25">
+        <v>46736</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="17">
+        <v>100</v>
+      </c>
+      <c r="J11" s="17">
+        <v>115.5</v>
+      </c>
+      <c r="K11" s="25">
+        <v>45471</v>
+      </c>
+      <c r="L11" s="17">
+        <v>149.24</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="N11" s="28">
+        <v>6.0711695456237003E-3</v>
+      </c>
+      <c r="O11" s="17">
+        <v>3.33</v>
+      </c>
+      <c r="P11" s="18">
+        <v>3.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bin/tabla_bonos_reacomodada.xlsx
+++ b/bin/tabla_bonos_reacomodada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBDEC2C-89B0-428B-9BC4-0BE331A67943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C92B41-92B8-4F80-932A-7D7E2B601FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$31:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="603">
   <si>
     <t>Sección</t>
   </si>
@@ -1855,7 +1856,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1992,7 +1993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2009,12 +2010,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2024,12 +2019,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3104,7 +3095,32 @@
         <filter val="Bonos CUASIPAR"/>
         <filter val="Bonos Discount"/>
         <filter val="Bonos PAR"/>
+        <filter val="CER (cupón)"/>
         <filter val="CER cupón cero"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CUAP"/>
+        <filter val="DICP"/>
+        <filter val="DIP0"/>
+        <filter val="PAP0"/>
+        <filter val="PARP"/>
+        <filter val="T2X4"/>
+        <filter val="T2X5"/>
+        <filter val="T5X4"/>
+        <filter val="TC25P"/>
+        <filter val="TX25"/>
+        <filter val="TX26"/>
+        <filter val="TX28"/>
+        <filter val="TZX25"/>
+        <filter val="TZX26"/>
+        <filter val="TZX27"/>
+        <filter val="TZX28"/>
+        <filter val="TZXD5"/>
+        <filter val="TZXD6"/>
+        <filter val="TZXD7"/>
+        <filter val="TZXM6"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3454,12 +3470,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:S50"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -3478,7 +3494,7 @@
     <col min="18" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,7 +3553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3596,7 +3612,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3655,7 +3671,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3714,7 +3730,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3773,7 +3789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -3832,7 +3848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3891,7 +3907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -3950,7 +3966,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4009,7 +4025,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4068,7 +4084,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -4127,7 +4143,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -4186,7 +4202,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -4245,7 +4261,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -4304,7 +4320,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -4363,7 +4379,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -4422,7 +4438,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -4481,7 +4497,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -4540,7 +4556,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -4599,7 +4615,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -4658,7 +4674,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -4717,7 +4733,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -4776,7 +4792,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -4835,7 +4851,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -4894,7 +4910,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -4953,7 +4969,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -5012,7 +5028,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -5071,7 +5087,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -5130,7 +5146,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -5189,7 +5205,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -5248,7 +5264,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -5307,7 +5323,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -5366,7 +5382,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -5425,7 +5441,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>278</v>
       </c>
@@ -5484,7 +5500,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>278</v>
       </c>
@@ -5543,7 +5559,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>278</v>
       </c>
@@ -5602,7 +5618,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -5661,7 +5677,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -5720,7 +5736,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -5779,7 +5795,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>278</v>
       </c>
@@ -5838,7 +5854,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>278</v>
       </c>
@@ -5897,7 +5913,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5956,7 +5972,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>377</v>
       </c>
@@ -6015,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>377</v>
       </c>
@@ -6074,7 +6090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>377</v>
       </c>
@@ -6133,7 +6149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>377</v>
       </c>
@@ -6192,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -6251,7 +6267,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>377</v>
       </c>
@@ -6310,7 +6326,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>377</v>
       </c>
@@ -6369,7 +6385,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>377</v>
       </c>
@@ -6428,7 +6444,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>439</v>
       </c>
@@ -6487,7 +6503,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>439</v>
       </c>
@@ -6546,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>439</v>
       </c>
@@ -6605,7 +6621,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>473</v>
       </c>
@@ -6664,7 +6680,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>473</v>
       </c>
@@ -6723,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>493</v>
       </c>
@@ -6782,7 +6798,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>493</v>
       </c>
@@ -6841,7 +6857,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>493</v>
       </c>
@@ -6900,7 +6916,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>493</v>
       </c>
@@ -6959,7 +6975,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -7018,7 +7034,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>493</v>
       </c>
@@ -7077,7 +7093,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>493</v>
       </c>
@@ -7136,7 +7152,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>493</v>
       </c>
@@ -7195,7 +7211,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>493</v>
       </c>
@@ -7254,7 +7270,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>493</v>
       </c>
@@ -7313,112 +7329,112 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>601</v>
       </c>
@@ -7438,10 +7454,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -7464,7 +7480,7 @@
     <col min="24" max="25" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7541,7 +7557,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7618,7 +7634,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -7695,7 +7711,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -7772,7 +7788,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -7834,7 +7850,7 @@
         <v>1739.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -7896,7 +7912,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -7958,7 +7974,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -8020,7 +8036,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -8097,7 +8113,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -8174,7 +8190,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -8242,7 +8258,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -8319,7 +8335,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -8396,7 +8412,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -8473,7 +8489,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -8550,7 +8566,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -8627,7 +8643,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -8704,7 +8720,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -8781,7 +8797,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -8858,7 +8874,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -8935,7 +8951,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -9012,7 +9028,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -9089,7 +9105,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -9166,7 +9182,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -9243,7 +9259,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -9320,7 +9336,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -9397,7 +9413,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -9474,7 +9490,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -9551,7 +9567,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -9628,7 +9644,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -9705,7 +9721,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -9782,7 +9798,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -9859,7 +9875,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -9936,7 +9952,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>278</v>
       </c>
@@ -10013,7 +10029,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>278</v>
       </c>
@@ -10090,7 +10106,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>278</v>
       </c>
@@ -10167,7 +10183,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -10244,7 +10260,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -10321,7 +10337,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -10398,7 +10414,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>278</v>
       </c>
@@ -10475,7 +10491,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>278</v>
       </c>
@@ -10552,7 +10568,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -10629,7 +10645,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>377</v>
       </c>
@@ -10703,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>377</v>
       </c>
@@ -10777,7 +10793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>377</v>
       </c>
@@ -10851,7 +10867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>377</v>
       </c>
@@ -10925,7 +10941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -10999,7 +11015,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>377</v>
       </c>
@@ -11073,7 +11089,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>377</v>
       </c>
@@ -11147,7 +11163,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>377</v>
       </c>
@@ -11221,7 +11237,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>439</v>
       </c>
@@ -11298,7 +11314,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>439</v>
       </c>
@@ -11375,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>439</v>
       </c>
@@ -11452,7 +11468,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>473</v>
       </c>
@@ -11529,7 +11545,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>473</v>
       </c>
@@ -11606,7 +11622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>493</v>
       </c>
@@ -11683,7 +11699,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>493</v>
       </c>
@@ -11760,7 +11776,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>493</v>
       </c>
@@ -11837,7 +11853,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>493</v>
       </c>
@@ -11914,7 +11930,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -11991,7 +12007,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>493</v>
       </c>
@@ -12068,7 +12084,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>493</v>
       </c>
@@ -12145,7 +12161,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>493</v>
       </c>
@@ -12222,7 +12238,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>493</v>
       </c>
@@ -12299,7 +12315,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>493</v>
       </c>
@@ -12389,19 +12405,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>377</v>
       </c>
@@ -12424,7 +12440,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>377</v>
       </c>
@@ -12447,7 +12463,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>377</v>
       </c>
@@ -12470,7 +12486,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>377</v>
       </c>
@@ -12493,7 +12509,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>377</v>
       </c>
@@ -12516,7 +12532,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>377</v>
       </c>
@@ -12539,7 +12555,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>377</v>
       </c>
@@ -12562,7 +12578,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>278</v>
       </c>
@@ -12579,7 +12595,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>278</v>
       </c>
@@ -12596,7 +12612,7 @@
         <v>-0.1668</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>278</v>
       </c>
@@ -12613,7 +12629,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>278</v>
       </c>
@@ -12650,7 +12666,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>278</v>
       </c>
@@ -12687,7 +12703,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>377</v>
       </c>
@@ -12723,7 +12739,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>278</v>
       </c>
@@ -12760,7 +12776,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>377</v>
       </c>
@@ -12797,7 +12813,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>377</v>
       </c>
@@ -12834,7 +12850,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>377</v>
       </c>
@@ -12871,7 +12887,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>278</v>
       </c>
@@ -12908,7 +12924,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>377</v>
       </c>
@@ -12945,7 +12961,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>377</v>
       </c>
@@ -12982,7 +12998,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>377</v>
       </c>
@@ -13019,7 +13035,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="6"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>377</v>
       </c>
@@ -13056,7 +13072,7 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>278</v>
       </c>
@@ -13093,7 +13109,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="6"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>278</v>
       </c>
@@ -13130,7 +13146,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -13167,7 +13183,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="6"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -13204,7 +13220,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -13241,7 +13257,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -13258,7 +13274,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>278</v>
       </c>
@@ -13275,7 +13291,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>278</v>
       </c>
@@ -13292,7 +13308,7 @@
         <v>-0.1668</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>278</v>
       </c>
@@ -13309,7 +13325,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>278</v>
       </c>
@@ -13326,7 +13342,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>278</v>
       </c>
@@ -13343,7 +13359,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>377</v>
       </c>
@@ -13367,7 +13383,7 @@
         <v>1.0054794520547945</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>278</v>
       </c>
@@ -13384,7 +13400,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>377</v>
       </c>
@@ -13408,7 +13424,7 @@
         <v>1.4657534246575343</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>377</v>
       </c>
@@ -13432,7 +13448,7 @@
         <v>1.7561643835616438</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>377</v>
       </c>
@@ -13456,7 +13472,7 @@
         <v>2.0054794520547947</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>278</v>
       </c>
@@ -13473,7 +13489,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>377</v>
       </c>
@@ -13497,7 +13513,7 @@
         <v>2.4657534246575343</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>377</v>
       </c>
@@ -13521,7 +13537,7 @@
         <v>3.0054794520547947</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>377</v>
       </c>
@@ -13545,7 +13561,7 @@
         <v>3.4657534246575343</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>377</v>
       </c>
@@ -13569,7 +13585,7 @@
         <v>4.0082191780821921</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>278</v>
       </c>
@@ -13586,7 +13602,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>278</v>
       </c>
@@ -13603,7 +13619,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
@@ -13620,7 +13636,7 @@
         <v>7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
@@ -13637,7 +13653,7 @@
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -13672,572 +13688,789 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EB33B5-3159-4480-BE34-6996F76CA9E9}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="M2" sqref="A2:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="M1" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="O1" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9">
+        <v>53327</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45657</v>
+      </c>
+      <c r="H2" s="3">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20230</v>
+      </c>
+      <c r="J2" s="9">
+        <v>45471</v>
+      </c>
+      <c r="K2" s="3">
+        <v>38606.080000000002</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="M2" s="17">
+        <v>6.6996882730528617E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>10.51</v>
+      </c>
+      <c r="O2" s="6">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10">
+        <v>48944</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10">
+        <v>45657</v>
+      </c>
+      <c r="H3" s="5">
+        <v>95</v>
+      </c>
+      <c r="I3" s="5">
+        <v>31250</v>
+      </c>
+      <c r="J3" s="10">
+        <v>45471</v>
+      </c>
+      <c r="K3" s="5">
+        <v>33544.160000000003</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="M3" s="18">
+        <v>9.5447733191835055E-3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3.97</v>
+      </c>
+      <c r="O3" s="7">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D4" s="9">
         <v>50770</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G4" s="9">
         <v>45565</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="15">
-        <v>100</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3">
         <v>16340</v>
       </c>
-      <c r="K2" s="23">
+      <c r="J4" s="9">
         <v>45471</v>
       </c>
-      <c r="L2" s="15">
+      <c r="K4" s="3">
         <v>27924.13</v>
       </c>
-      <c r="M2" s="24">
+      <c r="L4" s="11">
         <v>0.58520000000000005</v>
       </c>
-      <c r="N2" s="27">
-        <v>6.6996882730528617E-2</v>
-      </c>
-      <c r="O2" s="15">
+      <c r="M4" s="17">
+        <v>5.2493061860804893E-2</v>
+      </c>
+      <c r="N4" s="3">
         <v>7.96</v>
       </c>
-      <c r="P2" s="19">
+      <c r="O4" s="6">
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="25">
-        <v>48944</v>
-      </c>
-      <c r="E3" s="17" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45702</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G5" s="10">
+        <v>45518</v>
+      </c>
+      <c r="H5" s="5">
+        <v>100</v>
+      </c>
+      <c r="I5" s="5">
+        <v>509.6</v>
+      </c>
+      <c r="J5" s="10">
+        <v>45471</v>
+      </c>
+      <c r="K5" s="5">
+        <v>506.08</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="M5" s="12">
+        <v>-0.15639803589690551</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45495</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="25">
-        <v>45657</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="17">
-        <v>95</v>
-      </c>
-      <c r="J3" s="17">
-        <v>31250</v>
-      </c>
-      <c r="K3" s="25">
+      <c r="G6" s="10">
+        <v>45639</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100</v>
+      </c>
+      <c r="I6" s="5">
+        <v>411</v>
+      </c>
+      <c r="J6" s="10">
         <v>45471</v>
       </c>
-      <c r="L3" s="17">
-        <v>33544.160000000003</v>
-      </c>
-      <c r="M3" s="26">
-        <v>0.93159999999999998</v>
-      </c>
-      <c r="N3" s="28">
-        <v>9.5447733191835298E-3</v>
-      </c>
-      <c r="O3" s="17">
-        <v>3.97</v>
-      </c>
-      <c r="P3" s="18">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="23">
-        <v>53327</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="K6" s="5">
+        <v>405.22</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1.0143</v>
+      </c>
+      <c r="M6" s="12">
+        <v>-0.1443425551758587</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45774</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G7" s="9">
+        <v>45592</v>
+      </c>
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4520</v>
+      </c>
+      <c r="J7" s="9">
+        <v>45471</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4495.54</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1.0054000000000001</v>
+      </c>
+      <c r="M7" s="11">
+        <v>-0.12618229400838901</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="9">
+        <v>46335</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="23">
-        <v>45657</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="15">
-        <v>100</v>
-      </c>
-      <c r="J4" s="15">
-        <v>20230</v>
-      </c>
-      <c r="K4" s="23">
+      <c r="G8" s="9">
+        <v>45605</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1729</v>
+      </c>
+      <c r="J8" s="9">
         <v>45471</v>
       </c>
-      <c r="L4" s="15">
-        <v>38606.080000000002</v>
-      </c>
-      <c r="M4" s="24">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="N4" s="27">
-        <v>5.24930618608049E-2</v>
-      </c>
-      <c r="O4" s="15">
-        <v>10.51</v>
-      </c>
-      <c r="P4" s="19">
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="K8" s="3">
+        <v>1799.52</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="M8" s="11">
+        <v>-7.8270670460865277E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="10">
+        <v>47066</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10">
+        <v>45605</v>
+      </c>
+      <c r="H9" s="5">
+        <v>90</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1488</v>
+      </c>
+      <c r="J9" s="10">
+        <v>45471</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1799.58</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="M9" s="12">
+        <v>-3.1592830708154523E-2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="O9" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B10" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C10" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D10" s="10">
         <v>45838</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E10" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="10">
         <v>45838</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="I5" s="17">
-        <v>100</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="H10" s="5">
+        <v>100</v>
+      </c>
+      <c r="I10" s="5">
         <v>158.69999999999999</v>
       </c>
-      <c r="K5" s="25">
+      <c r="J10" s="10">
         <v>45471</v>
       </c>
-      <c r="L5" s="17">
-        <v>100</v>
-      </c>
-      <c r="M5" s="26">
+      <c r="K10" s="5">
+        <v>100</v>
+      </c>
+      <c r="L10" s="12">
         <v>1.587</v>
       </c>
-      <c r="N5" s="28">
+      <c r="M10" s="18">
         <v>-0.1128680621204154</v>
       </c>
-      <c r="O5" s="17">
+      <c r="N10" s="5">
         <v>0.98</v>
       </c>
-      <c r="P5" s="18">
+      <c r="O10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B11" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C11" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D11" s="9">
         <v>46203</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="9">
         <v>46203</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="I6" s="15">
-        <v>100</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H11" s="3">
+        <v>100</v>
+      </c>
+      <c r="I11" s="3">
         <v>181.75</v>
       </c>
-      <c r="K6" s="23">
+      <c r="J11" s="9">
         <v>45471</v>
       </c>
-      <c r="L6" s="15">
-        <v>100</v>
-      </c>
-      <c r="M6" s="24">
+      <c r="K11" s="3">
+        <v>100</v>
+      </c>
+      <c r="L11" s="11">
         <v>1.8174999999999999</v>
       </c>
-      <c r="N6" s="27">
+      <c r="M11" s="17">
         <v>-6.1065030510503382E-2</v>
       </c>
-      <c r="O6" s="15">
+      <c r="N11" s="3">
         <v>1.94</v>
       </c>
-      <c r="P6" s="19">
+      <c r="O11" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B12" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C12" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D12" s="10">
         <v>46568</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E12" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="F12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="10">
         <v>46568</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="I7" s="17">
-        <v>100</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="H12" s="5">
+        <v>100</v>
+      </c>
+      <c r="I12" s="5">
         <v>170</v>
       </c>
-      <c r="K7" s="25">
+      <c r="J12" s="10">
         <v>45471</v>
       </c>
-      <c r="L7" s="17">
-        <v>100</v>
-      </c>
-      <c r="M7" s="26">
+      <c r="K12" s="5">
+        <v>100</v>
+      </c>
+      <c r="L12" s="12">
         <v>1.7</v>
       </c>
-      <c r="N7" s="28">
+      <c r="M12" s="18">
         <v>-1.9956101311708219E-2</v>
       </c>
-      <c r="O7" s="17">
+      <c r="N12" s="5">
         <v>2.91</v>
       </c>
-      <c r="P7" s="18">
+      <c r="O12" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B13" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C13" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D13" s="9">
         <v>46934</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E13" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="9">
         <v>46934</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="I8" s="15">
-        <v>100</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="H13" s="3">
+        <v>100</v>
+      </c>
+      <c r="I13" s="3">
         <v>148</v>
       </c>
-      <c r="K8" s="23">
+      <c r="J13" s="9">
         <v>45471</v>
       </c>
-      <c r="L8" s="15">
+      <c r="K13" s="3">
         <v>201.87</v>
       </c>
-      <c r="M8" s="24">
+      <c r="L13" s="11">
         <v>0.73319999999999996</v>
       </c>
-      <c r="N8" s="27">
+      <c r="M13" s="17">
         <v>1.8022380829635139E-2</v>
       </c>
-      <c r="O8" s="15">
+      <c r="N13" s="3">
         <v>3.84</v>
       </c>
-      <c r="P8" s="19">
+      <c r="O13" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B14" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C14" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D14" s="10">
         <v>46006</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E14" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="25">
+      <c r="F14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="10">
         <v>46006</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="I9" s="17">
-        <v>100</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="H14" s="5">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5">
         <v>136.75</v>
       </c>
-      <c r="K9" s="25">
+      <c r="J14" s="10">
         <v>45471</v>
       </c>
-      <c r="L9" s="17">
+      <c r="K14" s="5">
         <v>150.06</v>
       </c>
-      <c r="M9" s="26">
+      <c r="L14" s="12">
         <v>0.9113</v>
       </c>
-      <c r="N9" s="28">
+      <c r="M14" s="18">
         <v>-7.8124402058578957E-2</v>
       </c>
-      <c r="O9" s="17">
+      <c r="N14" s="5">
         <v>1.41</v>
       </c>
-      <c r="P9" s="18">
+      <c r="O14" s="7">
         <v>1.75</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B15" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C15" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D15" s="9">
         <v>46371</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E15" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="9">
         <v>46371</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="I10" s="15">
-        <v>100</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>128</v>
       </c>
-      <c r="K10" s="23">
+      <c r="J15" s="9">
         <v>45471</v>
       </c>
-      <c r="L10" s="15">
+      <c r="K15" s="3">
         <v>149.24</v>
       </c>
-      <c r="M10" s="24">
+      <c r="L15" s="11">
         <v>0.85770000000000002</v>
       </c>
-      <c r="N10" s="27">
+      <c r="M15" s="17">
         <v>-3.6358616677768962E-2</v>
       </c>
-      <c r="O10" s="15">
+      <c r="N15" s="3">
         <v>2.38</v>
       </c>
-      <c r="P10" s="19">
+      <c r="O15" s="6">
         <v>2.46</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B16" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C16" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D16" s="10">
         <v>46736</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E16" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="F16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="10">
         <v>46736</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="I11" s="17">
-        <v>100</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="H16" s="5">
+        <v>100</v>
+      </c>
+      <c r="I16" s="5">
         <v>115.5</v>
       </c>
-      <c r="K11" s="25">
+      <c r="J16" s="10">
         <v>45471</v>
       </c>
-      <c r="L11" s="17">
+      <c r="K16" s="5">
         <v>149.24</v>
       </c>
-      <c r="M11" s="26">
+      <c r="L16" s="12">
         <v>0.77390000000000003</v>
       </c>
-      <c r="N11" s="28">
+      <c r="M16" s="18">
         <v>6.0711695456237003E-3</v>
       </c>
-      <c r="O11" s="17">
+      <c r="N16" s="5">
         <v>3.33</v>
       </c>
-      <c r="P11" s="18">
+      <c r="O16" s="7">
         <v>3.46</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{99EB33B5-3159-4480-BE34-6996F76CA9E9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O18">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bin/tabla_bonos_reacomodada.xlsx
+++ b/bin/tabla_bonos_reacomodada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C92B41-92B8-4F80-932A-7D7E2B601FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D75419E-9937-407A-8E0E-2C459D2D8F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="604">
   <si>
     <t>Sección</t>
   </si>
@@ -1849,6 +1849,9 @@
   </si>
   <si>
     <t>TIR sin ECL</t>
+  </si>
+  <si>
+    <t>Emisión</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +1996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2021,6 +2024,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3088,8 +3092,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaBonos" displayName="TablaBonos" ref="A1:S65">
-  <autoFilter ref="A1:S65" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaBonos" displayName="TablaBonos" ref="A1:T65">
+  <autoFilter ref="A1:T65" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Bonos CUASIPAR"/>
@@ -3124,10 +3128,11 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sección"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Código"/>
+    <tableColumn id="20" xr3:uid="{6A398282-AD46-4691-AB3D-DC50C2122227}" name="Emisión"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Vencimiento"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Amortización/Plazo"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Frecuencia"/>
@@ -3468,33 +3473,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="9" width="10" customWidth="1"/>
-    <col min="10" max="11" width="12" customWidth="1"/>
-    <col min="12" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="19" width="10" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="10" width="10" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="13" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3505,55 +3510,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3564,55 +3572,58 @@
         <v>21</v>
       </c>
       <c r="D2" s="8">
+        <v>37986</v>
+      </c>
+      <c r="E2" s="8">
         <v>50770</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8">
         <v>45565</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>16340</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>45471</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>124.381</v>
       </c>
-      <c r="N2" s="13">
+      <c r="O2" s="13">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>27924.13</v>
       </c>
-      <c r="P2" s="13">
+      <c r="Q2" s="13">
         <v>0.58520000000000005</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="R2" s="13">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>7.96</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3623,55 +3634,58 @@
         <v>38</v>
       </c>
       <c r="D3" s="8">
+        <v>37986</v>
+      </c>
+      <c r="E3" s="8">
         <v>48944</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8">
         <v>45657</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>95</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>31250</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>45471</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>44</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5.431</v>
       </c>
-      <c r="N3" s="13">
+      <c r="O3" s="13">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>33544.160000000003</v>
       </c>
-      <c r="P3" s="13">
+      <c r="Q3" s="13">
         <v>0.93159999999999998</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="R3" s="13">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3.97</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>4.66</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3682,55 +3696,58 @@
         <v>53</v>
       </c>
       <c r="D4" s="8">
+        <v>37986</v>
+      </c>
+      <c r="E4" s="8">
         <v>53327</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8">
         <v>45657</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>20230</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <v>45471</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3.5489999999999999</v>
       </c>
-      <c r="N4" s="13">
+      <c r="O4" s="13">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>38606.080000000002</v>
       </c>
-      <c r="P4" s="13">
+      <c r="Q4" s="13">
         <v>0.52400000000000002</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="R4" s="13">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>10.51</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>13.95</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3740,33 +3757,30 @@
       <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>49658</v>
       </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
       <c r="F5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="8">
         <v>46006</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
         <v>1739.5</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>45471</v>
       </c>
-      <c r="L5" t="s">
-        <v>66</v>
-      </c>
       <c r="M5" t="s">
         <v>66</v>
       </c>
@@ -3788,8 +3802,11 @@
       <c r="S5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -3799,33 +3816,30 @@
       <c r="C6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>49658</v>
       </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
       <c r="F6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="8">
         <v>46006</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
         <v>6.1</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>45471</v>
       </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
       <c r="M6" t="s">
         <v>66</v>
       </c>
@@ -3847,8 +3861,11 @@
       <c r="S6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3858,33 +3875,30 @@
       <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>49658</v>
       </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
       <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="8">
         <v>46006</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
         <v>3200</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>45471</v>
       </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
       <c r="M7" t="s">
         <v>66</v>
       </c>
@@ -3906,8 +3920,11 @@
       <c r="S7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -3917,33 +3934,30 @@
       <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>49658</v>
       </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
       <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="8">
         <v>46006</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
         <v>9000</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>45471</v>
       </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
       <c r="M8" t="s">
         <v>66</v>
       </c>
@@ -3965,8 +3979,11 @@
       <c r="S8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3977,55 +3994,58 @@
         <v>78</v>
       </c>
       <c r="D9" s="8">
+        <v>37986</v>
+      </c>
+      <c r="E9" s="8">
         <v>50770</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8">
         <v>45565</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>100</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>16480</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>45471</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>124.381</v>
       </c>
-      <c r="N9" s="13">
+      <c r="O9" s="13">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>27924.13</v>
       </c>
-      <c r="P9" s="13">
+      <c r="Q9" s="13">
         <v>0.59019999999999995</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="R9" s="13">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>7.98</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4036,55 +4056,58 @@
         <v>84</v>
       </c>
       <c r="D10" s="8">
+        <v>37986</v>
+      </c>
+      <c r="E10" s="8">
         <v>48944</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="8">
         <v>45657</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>41</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>95</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>31540</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>45471</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>44</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>5.431</v>
       </c>
-      <c r="N10" s="13">
+      <c r="O10" s="13">
         <v>6.2E-2</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>33544.160000000003</v>
       </c>
-      <c r="P10" s="13">
+      <c r="Q10" s="13">
         <v>0.94030000000000002</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="R10" s="13">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3.99</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4.66</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -4094,56 +4117,56 @@
       <c r="C11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>49658</v>
       </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
       <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="8">
         <v>46006</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>25</v>
       </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11">
         <v>2300</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>45471</v>
       </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
       <c r="M11" t="s">
         <v>66</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11">
         <v>62.627049999999997</v>
       </c>
-      <c r="P11" s="13">
+      <c r="Q11" s="13">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="R11" s="13">
         <v>2.8308</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.41</v>
       </c>
-      <c r="S11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -4153,56 +4176,56 @@
       <c r="C12" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>47308</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>101</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>45482</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>100</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>74220</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>45471</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>104</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N12" s="13">
+      <c r="O12" s="13">
         <v>0.3508</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>100.48</v>
       </c>
-      <c r="P12" s="13">
+      <c r="Q12" s="13">
         <v>0.5504</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="R12" s="13">
         <v>0.28589999999999999</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.95</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2.61</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -4212,56 +4235,56 @@
       <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>47308</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>45482</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>25</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>100</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>55.7</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>45471</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>104</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N13" s="13">
+      <c r="O13" s="13">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>100.48</v>
       </c>
-      <c r="P13" s="13">
+      <c r="Q13" s="13">
         <v>0.5544</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="R13" s="13">
         <v>0.28179999999999999</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1.96</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>7.22</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -4271,56 +4294,56 @@
       <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>47673</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>122</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>45482</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>41</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>100</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>74340</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>45471</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>124</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.35799999999999998</v>
       </c>
-      <c r="N14" s="13">
+      <c r="O14" s="13">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>100.36</v>
       </c>
-      <c r="P14" s="13">
+      <c r="Q14" s="13">
         <v>0.55200000000000005</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="R14" s="13">
         <v>0.25440000000000002</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.13</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.17</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -4330,56 +4353,56 @@
       <c r="C15" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>47673</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>122</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <v>45482</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>100</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>55.15</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>45471</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>124</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.35799999999999998</v>
       </c>
-      <c r="N15" s="13">
+      <c r="O15" s="13">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>100.36</v>
       </c>
-      <c r="P15" s="13">
+      <c r="Q15" s="13">
         <v>0.54949999999999999</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="R15" s="13">
         <v>0.25669999999999998</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.13</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -4389,56 +4412,56 @@
       <c r="C16" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>49499</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>101</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>45482</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>100</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>59430</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>45471</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>142</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.732</v>
       </c>
-      <c r="N16" s="13">
+      <c r="O16" s="13">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>101.73</v>
       </c>
-      <c r="P16" s="13">
+      <c r="Q16" s="13">
         <v>0.43530000000000002</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="R16" s="13">
         <v>0.18579999999999999</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>5.55</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>7.58</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -4448,56 +4471,56 @@
       <c r="C17" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>49499</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>101</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <v>45482</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>25</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>100</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>44.07</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <v>45471</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>142</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.732</v>
       </c>
-      <c r="N17" s="13">
+      <c r="O17" s="13">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>101.73</v>
       </c>
-      <c r="P17" s="13">
+      <c r="Q17" s="13">
         <v>0.43319999999999997</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="R17" s="13">
         <v>0.18679999999999999</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>5.54</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -4507,56 +4530,56 @@
       <c r="C18" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>50414</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>160</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>45482</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>25</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>100</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>60800</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <v>45471</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>162</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.0310000000000001</v>
       </c>
-      <c r="N18" s="13">
+      <c r="O18" s="13">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>102.03</v>
       </c>
-      <c r="P18" s="13">
+      <c r="Q18" s="13">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="R18" s="13">
         <v>0.2109</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4.4400000000000004</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -4566,56 +4589,56 @@
       <c r="C19" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>50414</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>160</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>45482</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>100</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>45.3</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>45471</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>162</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2.0310000000000001</v>
       </c>
-      <c r="N19" s="13">
+      <c r="O19" s="13">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>102.03</v>
       </c>
-      <c r="P19" s="13">
+      <c r="Q19" s="13">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="R19" s="13">
         <v>0.2109</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>4.4400000000000004</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2.74</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -4625,56 +4648,56 @@
       <c r="C20" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>51691</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>176</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <v>45482</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>100</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>55380</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>45471</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>178</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.6719999999999999</v>
       </c>
-      <c r="N20" s="13">
+      <c r="O20" s="13">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>101.67</v>
       </c>
-      <c r="P20" s="13">
+      <c r="Q20" s="13">
         <v>0.40589999999999998</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="R20" s="13">
         <v>0.182</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>5.55</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>3.13</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -4684,56 +4707,56 @@
       <c r="C21" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>51691</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>176</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <v>45482</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>100</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>41.39</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>45471</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>178</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.6719999999999999</v>
       </c>
-      <c r="N21" s="13">
+      <c r="O21" s="13">
         <v>1.37E-2</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>101.67</v>
       </c>
-      <c r="P21" s="13">
+      <c r="Q21" s="13">
         <v>0.40710000000000002</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="R21" s="13">
         <v>0.18140000000000001</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>5.56</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -4743,56 +4766,56 @@
       <c r="C22" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="8">
+      <c r="E22" s="8">
         <v>47308</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>101</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <v>45482</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>100</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>77770</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <v>45471</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>104</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N22" s="13">
+      <c r="O22" s="13">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>100.48</v>
       </c>
-      <c r="P22" s="13">
+      <c r="Q22" s="13">
         <v>0.57669999999999999</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="R22" s="13">
         <v>0.25950000000000001</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2.0099999999999998</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -4802,56 +4825,56 @@
       <c r="C23" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="8">
+      <c r="E23" s="8">
         <v>47308</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <v>45482</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>25</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>100</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>58.14</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>45471</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>104</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N23" s="13">
+      <c r="O23" s="13">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>100.48</v>
       </c>
-      <c r="P23" s="13">
+      <c r="Q23" s="13">
         <v>0.5786</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="R23" s="13">
         <v>0.25769999999999998</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2.0099999999999998</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>7.58</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -4861,56 +4884,56 @@
       <c r="C24" t="s">
         <v>205</v>
       </c>
-      <c r="D24" s="8">
+      <c r="E24" s="8">
         <v>47673</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>122</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="8">
         <v>45482</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>41</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>100</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>76540</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <v>45471</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>124</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.35799999999999998</v>
       </c>
-      <c r="N24" s="13">
+      <c r="O24" s="13">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>100.36</v>
       </c>
-      <c r="P24" s="13">
+      <c r="Q24" s="13">
         <v>0.56830000000000003</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="R24" s="13">
         <v>0.2394</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2.1800000000000002</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1.35</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -4920,56 +4943,56 @@
       <c r="C25" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>47673</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>122</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <v>45482</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>41</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>100</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>56.76</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <v>45471</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>124</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.35799999999999998</v>
       </c>
-      <c r="N25" s="13">
+      <c r="O25" s="13">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>100.36</v>
       </c>
-      <c r="P25" s="13">
+      <c r="Q25" s="13">
         <v>0.56559999999999999</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="R25" s="13">
         <v>0.24179999999999999</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.17</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>7.22</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -4979,56 +5002,56 @@
       <c r="C26" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="8">
+      <c r="E26" s="8">
         <v>49499</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>101</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="8">
         <v>45482</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>25</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>100</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>59400</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>45471</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>142</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.732</v>
       </c>
-      <c r="N26" s="13">
+      <c r="O26" s="13">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>101.73</v>
       </c>
-      <c r="P26" s="13">
+      <c r="Q26" s="13">
         <v>0.43509999999999999</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="R26" s="13">
         <v>0.18590000000000001</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>5.55</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -5038,56 +5061,56 @@
       <c r="C27" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>49499</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>101</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H27" s="8">
         <v>45482</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>25</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>100</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>44.1</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>45471</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>142</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.732</v>
       </c>
-      <c r="N27" s="13">
+      <c r="O27" s="13">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>101.73</v>
       </c>
-      <c r="P27" s="13">
+      <c r="Q27" s="13">
         <v>0.4335</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="R27" s="13">
         <v>0.18659999999999999</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5.54</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>9.1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -5097,56 +5120,56 @@
       <c r="C28" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="8">
+      <c r="E28" s="8">
         <v>50414</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>160</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H28" s="8">
         <v>45482</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>25</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>100</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>65190</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>45471</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>162</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.0310000000000001</v>
       </c>
-      <c r="N28" s="13">
+      <c r="O28" s="13">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>102.03</v>
       </c>
-      <c r="P28" s="13">
+      <c r="Q28" s="13">
         <v>0.47610000000000002</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="R28" s="13">
         <v>0.19400000000000001</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>4.6100000000000003</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2.74</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -5156,56 +5179,56 @@
       <c r="C29" t="s">
         <v>237</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E29" s="8">
         <v>50414</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>160</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="8">
         <v>45482</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>100</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>48</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <v>45471</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>162</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.0310000000000001</v>
       </c>
-      <c r="N29" s="13">
+      <c r="O29" s="13">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>102.03</v>
       </c>
-      <c r="P29" s="13">
+      <c r="Q29" s="13">
         <v>0.47039999999999998</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="R29" s="13">
         <v>0.19689999999999999</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>4.58</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>2.74</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -5215,56 +5238,56 @@
       <c r="C30" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="8">
+      <c r="E30" s="8">
         <v>51691</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>176</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H30" s="8">
         <v>45482</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>25</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>100</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>55710</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>45471</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>178</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.6719999999999999</v>
       </c>
-      <c r="N30" s="13">
+      <c r="O30" s="13">
         <v>1.32E-2</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>101.67</v>
       </c>
-      <c r="P30" s="13">
+      <c r="Q30" s="13">
         <v>0.4083</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="R30" s="13">
         <v>0.18079999999999999</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>5.56</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3.13</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -5274,56 +5297,56 @@
       <c r="C31" t="s">
         <v>249</v>
       </c>
-      <c r="D31" s="8">
+      <c r="E31" s="8">
         <v>51691</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>176</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <v>45482</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>25</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>100</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>40.5</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>45471</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>178</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.6719999999999999</v>
       </c>
-      <c r="N31" s="13">
+      <c r="O31" s="13">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>101.67</v>
       </c>
-      <c r="P31" s="13">
+      <c r="Q31" s="13">
         <v>0.39829999999999999</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="R31" s="13">
         <v>0.1857</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>5.49</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -5333,56 +5356,56 @@
       <c r="C32" t="s">
         <v>256</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="8">
         <v>53517</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>258</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <v>45482</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>25</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>100</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>61890</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>45471</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>142</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.732</v>
       </c>
-      <c r="N32" s="13">
+      <c r="O32" s="13">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>101.73</v>
       </c>
-      <c r="P32" s="13">
+      <c r="Q32" s="13">
         <v>0.45329999999999998</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="R32" s="13">
         <v>0.18260000000000001</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>4.59</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>7.58</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -5392,56 +5415,56 @@
       <c r="C33" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="8">
         <v>46312</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>267</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="8">
+      <c r="H33" s="8">
         <v>45582</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>25</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>100</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>63.75</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>45471</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>270</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>3.1859999999999999</v>
       </c>
-      <c r="N33" s="13">
+      <c r="O33" s="13">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>103.19</v>
       </c>
-      <c r="P33" s="13">
+      <c r="Q33" s="13">
         <v>0.61780000000000002</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="R33" s="13">
         <v>0.49349999999999999</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1.48</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>1.02</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>278</v>
       </c>
@@ -5452,55 +5475,58 @@
         <v>280</v>
       </c>
       <c r="D34" s="8">
+        <v>45199</v>
+      </c>
+      <c r="E34" s="8">
         <v>45495</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>267</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <v>45639</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>41</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>100</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>411</v>
       </c>
-      <c r="K34" s="8">
+      <c r="L34" s="8">
         <v>45471</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>162</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.85899999999999999</v>
       </c>
-      <c r="N34" s="13">
+      <c r="O34" s="13">
         <v>4.19E-2</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>405.22</v>
       </c>
-      <c r="P34" s="13">
+      <c r="Q34" s="13">
         <v>1.0143</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="R34" s="13">
         <v>1.06E-2</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.46</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>278</v>
       </c>
@@ -5511,55 +5537,58 @@
         <v>291</v>
       </c>
       <c r="D35" s="8">
+        <v>45348</v>
+      </c>
+      <c r="E35" s="8">
         <v>45499</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>267</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H35" s="8">
         <v>45499</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>41</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>100</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>1543</v>
       </c>
-      <c r="K35" s="8">
+      <c r="L35" s="8">
         <v>45471</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>294</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>10.090999999999999</v>
       </c>
-      <c r="N35" s="13">
+      <c r="O35" s="13">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>1522.21</v>
       </c>
-      <c r="P35" s="13">
+      <c r="Q35" s="13">
         <v>1.0137</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="R35" s="13">
         <v>-0.1668</v>
-      </c>
-      <c r="R35">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S35">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>278</v>
       </c>
@@ -5569,56 +5598,56 @@
       <c r="C36" t="s">
         <v>302</v>
       </c>
-      <c r="D36" s="8">
+      <c r="E36" s="8">
         <v>45579</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>267</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="8">
+      <c r="H36" s="8">
         <v>45579</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>41</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>100</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>510.2</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>45471</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>305</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>4.2610000000000001</v>
       </c>
-      <c r="N36" s="13">
+      <c r="O36" s="13">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>502.29</v>
       </c>
-      <c r="P36" s="13">
+      <c r="Q36" s="13">
         <v>1.0158</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="R36" s="13">
         <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="R36">
-        <v>0.28999999999999998</v>
       </c>
       <c r="S36">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -5629,55 +5658,58 @@
         <v>313</v>
       </c>
       <c r="D37" s="8">
+        <v>44971</v>
+      </c>
+      <c r="E37" s="8">
         <v>45702</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>267</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="8">
+      <c r="H37" s="8">
         <v>45518</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>25</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>100</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>509.6</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>45471</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>162</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>8.0549999999999997</v>
       </c>
-      <c r="N37" s="13">
+      <c r="O37" s="13">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>506.08</v>
       </c>
-      <c r="P37" s="13">
+      <c r="Q37" s="13">
         <v>1.0069999999999999</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="R37" s="13">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.6</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.61</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -5688,55 +5720,58 @@
         <v>324</v>
       </c>
       <c r="D38" s="8">
+        <v>43217</v>
+      </c>
+      <c r="E38" s="8">
         <v>45774</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>267</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="8">
+      <c r="H38" s="8">
         <v>45592</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>25</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>100</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>4520</v>
       </c>
-      <c r="K38" s="8">
+      <c r="L38" s="8">
         <v>45471</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>305</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>31.742999999999999</v>
       </c>
-      <c r="N38" s="13">
+      <c r="O38" s="13">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>4495.54</v>
       </c>
-      <c r="P38" s="13">
+      <c r="Q38" s="13">
         <v>1.0054000000000001</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="R38" s="13">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.8</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -5747,55 +5782,58 @@
         <v>335</v>
       </c>
       <c r="D39" s="8">
+        <v>45800</v>
+      </c>
+      <c r="E39" s="8">
         <v>45970</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>267</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="8">
+      <c r="H39" s="8">
         <v>45605</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>25</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>100</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>850</v>
       </c>
-      <c r="K39" s="8">
+      <c r="L39" s="8">
         <v>45471</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>338</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>2.2759999999999998</v>
       </c>
-      <c r="N39" s="13">
+      <c r="O39" s="13">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>877.69</v>
       </c>
-      <c r="P39" s="13">
+      <c r="Q39" s="13">
         <v>0.96850000000000003</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="R39" s="13">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>1.32</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>278</v>
       </c>
@@ -5806,55 +5844,58 @@
         <v>346</v>
       </c>
       <c r="D40" s="8">
+        <v>44078</v>
+      </c>
+      <c r="E40" s="8">
         <v>46335</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>347</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="8">
+      <c r="H40" s="8">
         <v>45605</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>41</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>100</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1729</v>
       </c>
-      <c r="K40" s="8">
+      <c r="L40" s="8">
         <v>45471</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>349</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>5.1840000000000002</v>
       </c>
-      <c r="N40" s="13">
+      <c r="O40" s="13">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>1799.52</v>
       </c>
-      <c r="P40" s="13">
+      <c r="Q40" s="13">
         <v>0.96079999999999999</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="R40" s="13">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>1.29</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>278</v>
       </c>
@@ -5865,55 +5906,58 @@
         <v>356</v>
       </c>
       <c r="D41" s="8">
+        <v>44077</v>
+      </c>
+      <c r="E41" s="8">
         <v>47066</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>101</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="8">
+      <c r="H41" s="8">
         <v>45605</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>41</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>90</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>1488</v>
       </c>
-      <c r="K41" s="8">
+      <c r="L41" s="8">
         <v>45471</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>359</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>5.2480000000000002</v>
       </c>
-      <c r="N41" s="13">
+      <c r="O41" s="13">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1799.58</v>
       </c>
-      <c r="P41" s="13">
+      <c r="Q41" s="13">
         <v>0.82689999999999997</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="R41" s="13">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>2.16</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5923,56 +5967,56 @@
       <c r="C42" t="s">
         <v>366</v>
       </c>
-      <c r="D42" s="8">
+      <c r="E42" s="8">
         <v>48182</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>101</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="8">
+      <c r="H42" s="8">
         <v>45626</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>25</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>100</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>667.9</v>
       </c>
-      <c r="K42" s="8">
+      <c r="L42" s="8">
         <v>45471</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>369</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>1.8560000000000001</v>
       </c>
-      <c r="N42" s="13">
+      <c r="O42" s="13">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>864.12</v>
       </c>
-      <c r="P42" s="13">
+      <c r="Q42" s="13">
         <v>0.77290000000000003</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="R42" s="13">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>4.51</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>4.91</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>377</v>
       </c>
@@ -5983,55 +6027,58 @@
         <v>379</v>
       </c>
       <c r="D43" s="8">
+        <v>45323</v>
+      </c>
+      <c r="E43" s="8">
         <v>45838</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>267</v>
       </c>
-      <c r="F43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="8">
         <v>45838</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>381</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>100</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>158.69999999999999</v>
       </c>
-      <c r="K43" s="8">
+      <c r="L43" s="8">
         <v>45471</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>383</v>
       </c>
-      <c r="M43" t="s">
-        <v>66</v>
-      </c>
       <c r="N43" t="s">
         <v>66</v>
       </c>
-      <c r="O43">
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43">
         <v>100</v>
       </c>
-      <c r="P43" s="13">
+      <c r="Q43" s="13">
         <v>1.587</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="R43" s="13">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>0.98</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>377</v>
       </c>
@@ -6042,55 +6089,58 @@
         <v>388</v>
       </c>
       <c r="D44" s="8">
+        <v>45323</v>
+      </c>
+      <c r="E44" s="8">
         <v>46203</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>267</v>
       </c>
-      <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="8">
         <v>46203</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>381</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>100</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>181.75</v>
       </c>
-      <c r="K44" s="8">
+      <c r="L44" s="8">
         <v>45471</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>383</v>
       </c>
-      <c r="M44" t="s">
-        <v>66</v>
-      </c>
       <c r="N44" t="s">
         <v>66</v>
       </c>
-      <c r="O44">
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44">
         <v>100</v>
       </c>
-      <c r="P44" s="13">
+      <c r="Q44" s="13">
         <v>1.8174999999999999</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="R44" s="13">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>1.94</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>377</v>
       </c>
@@ -6101,55 +6151,58 @@
         <v>395</v>
       </c>
       <c r="D45" s="8">
+        <v>45323</v>
+      </c>
+      <c r="E45" s="8">
         <v>46568</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>267</v>
       </c>
-      <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="8">
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="8">
         <v>46568</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>381</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>100</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>170</v>
       </c>
-      <c r="K45" s="8">
+      <c r="L45" s="8">
         <v>45471</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>383</v>
       </c>
-      <c r="M45" t="s">
-        <v>66</v>
-      </c>
       <c r="N45" t="s">
         <v>66</v>
       </c>
-      <c r="O45">
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45">
         <v>100</v>
       </c>
-      <c r="P45" s="13">
+      <c r="Q45" s="13">
         <v>1.7</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="R45" s="13">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>2.91</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>377</v>
       </c>
@@ -6160,55 +6213,58 @@
         <v>402</v>
       </c>
       <c r="D46" s="8">
+        <v>45323</v>
+      </c>
+      <c r="E46" s="8">
         <v>46934</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>267</v>
       </c>
-      <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="8">
         <v>46934</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>381</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>100</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>148</v>
       </c>
-      <c r="K46" s="8">
+      <c r="L46" s="8">
         <v>45471</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>383</v>
       </c>
-      <c r="M46" t="s">
-        <v>66</v>
-      </c>
       <c r="N46" t="s">
         <v>66</v>
       </c>
-      <c r="O46">
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46">
         <v>201.87</v>
       </c>
-      <c r="P46" s="13">
+      <c r="Q46" s="13">
         <v>0.73319999999999996</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="R46" s="13">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>3.84</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -6219,55 +6275,58 @@
         <v>410</v>
       </c>
       <c r="D47" s="8">
+        <v>45323</v>
+      </c>
+      <c r="E47" s="8">
         <v>46006</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>267</v>
       </c>
-      <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="8">
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="8">
         <v>46006</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>381</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>100</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>136.75</v>
       </c>
-      <c r="K47" s="8">
+      <c r="L47" s="8">
         <v>45471</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>383</v>
       </c>
-      <c r="M47" t="s">
-        <v>66</v>
-      </c>
       <c r="N47" t="s">
         <v>66</v>
       </c>
-      <c r="O47">
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47">
         <v>150.06</v>
       </c>
-      <c r="P47" s="13">
+      <c r="Q47" s="13">
         <v>0.9113</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="R47" s="13">
         <v>6.59E-2</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>1.41</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>377</v>
       </c>
@@ -6278,55 +6337,58 @@
         <v>417</v>
       </c>
       <c r="D48" s="8">
+        <v>45366</v>
+      </c>
+      <c r="E48" s="8">
         <v>46371</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>267</v>
       </c>
-      <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="8">
         <v>46371</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>381</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>100</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>128</v>
       </c>
-      <c r="K48" s="8">
+      <c r="L48" s="8">
         <v>45471</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>383</v>
       </c>
-      <c r="M48" t="s">
-        <v>66</v>
-      </c>
       <c r="N48" t="s">
         <v>66</v>
       </c>
-      <c r="O48">
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48">
         <v>149.24</v>
       </c>
-      <c r="P48" s="13">
+      <c r="Q48" s="13">
         <v>0.85770000000000002</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="R48" s="13">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>2.38</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>2.46</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>377</v>
       </c>
@@ -6337,55 +6399,58 @@
         <v>425</v>
       </c>
       <c r="D49" s="8">
+        <v>45366</v>
+      </c>
+      <c r="E49" s="8">
         <v>46736</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>267</v>
       </c>
-      <c r="F49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="8">
         <v>46736</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>381</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>100</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>115.5</v>
       </c>
-      <c r="K49" s="8">
+      <c r="L49" s="8">
         <v>45471</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>383</v>
       </c>
-      <c r="M49" t="s">
-        <v>66</v>
-      </c>
       <c r="N49" t="s">
         <v>66</v>
       </c>
-      <c r="O49">
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49">
         <v>149.24</v>
       </c>
-      <c r="P49" s="13">
+      <c r="Q49" s="13">
         <v>0.77390000000000003</v>
       </c>
-      <c r="Q49" s="13">
+      <c r="R49" s="13">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>3.33</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>3.46</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>377</v>
       </c>
@@ -6395,56 +6460,59 @@
       <c r="C50" t="s">
         <v>432</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="19">
+        <v>45412</v>
+      </c>
+      <c r="E50" s="8">
         <v>46112</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>267</v>
       </c>
-      <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="8">
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="8">
         <v>46112</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>381</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>100</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>109.5</v>
       </c>
-      <c r="K50" s="8">
+      <c r="L50" s="8">
         <v>45471</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>383</v>
       </c>
-      <c r="M50" t="s">
-        <v>66</v>
-      </c>
       <c r="N50" t="s">
         <v>66</v>
       </c>
-      <c r="O50">
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50">
         <v>120.02</v>
       </c>
-      <c r="P50" s="13">
+      <c r="Q50" s="13">
         <v>0.9123</v>
       </c>
-      <c r="Q50" s="13">
+      <c r="R50" s="13">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>1.7</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>1.75</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>439</v>
       </c>
@@ -6454,56 +6522,56 @@
       <c r="C51" t="s">
         <v>441</v>
       </c>
-      <c r="D51" s="8">
+      <c r="E51" s="8">
         <v>45534</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>267</v>
       </c>
-      <c r="F51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="8">
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="8">
         <v>45534</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>41</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>100</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>105250</v>
       </c>
-      <c r="K51" s="8">
+      <c r="L51" s="8">
         <v>45471</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>444</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>3364.2959999999998</v>
       </c>
-      <c r="N51" s="13">
+      <c r="O51" s="13">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>101951.74</v>
       </c>
-      <c r="P51" s="13">
+      <c r="Q51" s="13">
         <v>1.0324</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="R51" s="13">
         <v>-0.14990000000000001</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>0.18</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>439</v>
       </c>
@@ -6513,56 +6581,56 @@
       <c r="C52" t="s">
         <v>453</v>
       </c>
-      <c r="D52" s="8">
+      <c r="E52" s="8">
         <v>45473</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>267</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>455</v>
       </c>
-      <c r="G52" s="8">
+      <c r="H52" s="8">
         <v>45473</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>41</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>100</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>115950</v>
       </c>
-      <c r="K52" s="8">
+      <c r="L52" s="8">
         <v>45470</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>444</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>2917.797</v>
       </c>
-      <c r="N52" s="13">
+      <c r="O52" s="13">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>117123.51</v>
       </c>
-      <c r="P52" s="13">
+      <c r="Q52" s="13">
         <v>0.99</v>
       </c>
-      <c r="Q52" s="13">
-        <v>0</v>
-      </c>
-      <c r="R52">
+      <c r="R52" s="13">
         <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>439</v>
       </c>
@@ -6572,56 +6640,56 @@
       <c r="C53" t="s">
         <v>465</v>
       </c>
-      <c r="D53" s="8">
+      <c r="E53" s="8">
         <v>45688</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>267</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>455</v>
       </c>
-      <c r="G53" s="8">
+      <c r="H53" s="8">
         <v>45688</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>41</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>100</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>116500</v>
       </c>
-      <c r="K53" s="8">
+      <c r="L53" s="8">
         <v>45471</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>444</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>3364.2959999999998</v>
       </c>
-      <c r="N53" s="13">
+      <c r="O53" s="13">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>101951.74</v>
       </c>
-      <c r="P53" s="13">
+      <c r="Q53" s="13">
         <v>1.1427</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="R53" s="13">
         <v>-0.1784</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>0.64</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>0.59</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>473</v>
       </c>
@@ -6631,56 +6699,56 @@
       <c r="C54" t="s">
         <v>475</v>
       </c>
-      <c r="D54" s="8">
+      <c r="E54" s="8">
         <v>45747</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>267</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="8">
+      <c r="H54" s="8">
         <v>45565</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>25</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>100</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>109750</v>
       </c>
-      <c r="K54" s="8">
+      <c r="L54" s="8">
         <v>45471</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>478</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>0.126</v>
       </c>
-      <c r="N54" s="13">
+      <c r="O54" s="13">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>100.13</v>
       </c>
-      <c r="P54" s="13">
+      <c r="Q54" s="13">
         <v>1.2035</v>
       </c>
-      <c r="Q54" s="13">
+      <c r="R54" s="13">
         <v>-0.21579999999999999</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>0.85</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>473</v>
       </c>
@@ -6690,56 +6758,56 @@
       <c r="C55" t="s">
         <v>487</v>
       </c>
-      <c r="D55" s="8">
+      <c r="E55" s="8">
         <v>45838</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>267</v>
       </c>
-      <c r="F55" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="8">
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="8">
         <v>45838</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>381</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>100</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>107000</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
         <v>45471</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>489</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0</v>
       </c>
-      <c r="N55" s="13">
+      <c r="O55" s="13">
         <v>0</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>100</v>
       </c>
-      <c r="P55" s="13">
+      <c r="Q55" s="13">
         <v>0.79730000000000001</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="R55" s="13">
         <v>0.255</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>0.88</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>493</v>
       </c>
@@ -6749,56 +6817,56 @@
       <c r="C56" t="s">
         <v>495</v>
       </c>
-      <c r="D56" s="8">
+      <c r="E56" s="8">
         <v>46691</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>497</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="8">
+      <c r="H56" s="8">
         <v>45596</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>25</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>100</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>124490</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>45471</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>500</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>2.4443999999999999</v>
       </c>
-      <c r="N56" s="13">
+      <c r="O56" s="13">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>102.444</v>
       </c>
-      <c r="P56" s="13">
+      <c r="Q56" s="13">
         <v>0.90549999999999997</v>
       </c>
-      <c r="Q56" s="13">
+      <c r="R56" s="13">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>2.69</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>2.86</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>493</v>
       </c>
@@ -6808,56 +6876,56 @@
       <c r="C57" t="s">
         <v>508</v>
       </c>
-      <c r="D57" s="8">
+      <c r="E57" s="8">
         <v>46691</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>497</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>23</v>
       </c>
-      <c r="G57" s="8">
+      <c r="H57" s="8">
         <v>45596</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>25</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>100</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>111000</v>
       </c>
-      <c r="K57" s="8">
+      <c r="L57" s="8">
         <v>45471</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>500</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>2.4443999999999999</v>
       </c>
-      <c r="N57" s="13">
+      <c r="O57" s="13">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>102.444</v>
       </c>
-      <c r="P57" s="13">
+      <c r="Q57" s="13">
         <v>0.80740000000000001</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="R57" s="13">
         <v>0.1336</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>2.61</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>2.86</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>493</v>
       </c>
@@ -6867,56 +6935,56 @@
       <c r="C58" t="s">
         <v>514</v>
       </c>
-      <c r="D58" s="8">
+      <c r="E58" s="8">
         <v>46691</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>497</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="8">
+      <c r="H58" s="8">
         <v>45596</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>100</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>101800</v>
       </c>
-      <c r="K58" s="8">
+      <c r="L58" s="8">
         <v>45471</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>500</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>2.4443999999999999</v>
       </c>
-      <c r="N58" s="13">
+      <c r="O58" s="13">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>102.444</v>
       </c>
-      <c r="P58" s="13">
+      <c r="Q58" s="13">
         <v>0.74050000000000005</v>
       </c>
-      <c r="Q58" s="13">
+      <c r="R58" s="13">
         <v>0.16950000000000001</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>2.5499999999999998</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>2.86</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>493</v>
       </c>
@@ -6926,56 +6994,56 @@
       <c r="C59" t="s">
         <v>521</v>
       </c>
-      <c r="D59" s="8">
+      <c r="E59" s="8">
         <v>46691</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>497</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="8">
+      <c r="H59" s="8">
         <v>45596</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>25</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>100</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>97560</v>
       </c>
-      <c r="K59" s="8">
+      <c r="L59" s="8">
         <v>45471</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>500</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>2.4443999999999999</v>
       </c>
-      <c r="N59" s="13">
+      <c r="O59" s="13">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>102.444</v>
       </c>
-      <c r="P59" s="13">
+      <c r="Q59" s="13">
         <v>0.70960000000000001</v>
       </c>
-      <c r="Q59" s="13">
+      <c r="R59" s="13">
         <v>0.18759999999999999</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>2.52</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>2.86</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -6985,56 +7053,56 @@
       <c r="C60" t="s">
         <v>528</v>
       </c>
-      <c r="D60" s="8">
+      <c r="E60" s="8">
         <v>45838</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>529</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>463</v>
       </c>
-      <c r="G60" s="8">
+      <c r="H60" s="8">
         <v>45504</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>381</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>100</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>127880</v>
       </c>
-      <c r="K60" s="8">
+      <c r="L60" s="8">
         <v>45471</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>463</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0</v>
       </c>
-      <c r="N60" s="13">
+      <c r="O60" s="13">
         <v>0</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>100</v>
       </c>
-      <c r="P60" s="13">
+      <c r="Q60" s="13">
         <v>0.95289999999999997</v>
       </c>
-      <c r="Q60" s="13">
+      <c r="R60" s="13">
         <v>9.4E-2</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>0.51</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>493</v>
       </c>
@@ -7044,56 +7112,56 @@
       <c r="C61" t="s">
         <v>537</v>
       </c>
-      <c r="D61" s="8">
+      <c r="E61" s="8">
         <v>45838</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>529</v>
       </c>
-      <c r="F61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="8">
         <v>45504</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>381</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>100</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>94.25</v>
       </c>
-      <c r="K61" s="8">
+      <c r="L61" s="8">
         <v>45471</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>463</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>0</v>
       </c>
-      <c r="N61" s="13">
+      <c r="O61" s="13">
         <v>0</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>100</v>
       </c>
-      <c r="P61" s="13">
+      <c r="Q61" s="13">
         <v>0.9425</v>
       </c>
-      <c r="Q61" s="13">
+      <c r="R61" s="13">
         <v>0.1003</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>0.59</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>0.62</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>493</v>
       </c>
@@ -7103,56 +7171,56 @@
       <c r="C62" t="s">
         <v>543</v>
       </c>
-      <c r="D62" s="8">
+      <c r="E62" s="8">
         <v>45838</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>529</v>
       </c>
-      <c r="F62" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="8">
+      <c r="G62" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="8">
         <v>45504</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>381</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>100</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>94.8</v>
       </c>
-      <c r="K62" s="8">
+      <c r="L62" s="8">
         <v>45471</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>463</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>0</v>
       </c>
-      <c r="N62" s="13">
+      <c r="O62" s="13">
         <v>0</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>100</v>
       </c>
-      <c r="P62" s="13">
+      <c r="Q62" s="13">
         <v>0.94799999999999995</v>
       </c>
-      <c r="Q62" s="13">
+      <c r="R62" s="13">
         <v>0.09</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>0.59</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>0.62</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>493</v>
       </c>
@@ -7162,56 +7230,56 @@
       <c r="C63" t="s">
         <v>548</v>
       </c>
-      <c r="D63" s="8">
+      <c r="E63" s="8">
         <v>46173</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>550</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>551</v>
       </c>
-      <c r="G63" s="8">
+      <c r="H63" s="8">
         <v>45535</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>25</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>100</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>102800</v>
       </c>
-      <c r="K63" s="8">
+      <c r="L63" s="8">
         <v>45471</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>554</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>0.95</v>
       </c>
-      <c r="N63" s="13">
+      <c r="O63" s="13">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>100.95</v>
       </c>
-      <c r="P63" s="13">
+      <c r="Q63" s="13">
         <v>0.75880000000000003</v>
       </c>
-      <c r="Q63" s="13">
+      <c r="R63" s="13">
         <v>0.22289999999999999</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>1.44</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>1.62</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>493</v>
       </c>
@@ -7221,56 +7289,56 @@
       <c r="C64" t="s">
         <v>563</v>
       </c>
-      <c r="D64" s="8">
+      <c r="E64" s="8">
         <v>46173</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>550</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>551</v>
       </c>
-      <c r="G64" s="8">
+      <c r="H64" s="8">
         <v>45535</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>25</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>100</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>76</v>
       </c>
-      <c r="K64" s="8">
+      <c r="L64" s="8">
         <v>45471</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>554</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>0.95</v>
       </c>
-      <c r="N64" s="13">
+      <c r="O64" s="13">
         <v>0.04</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>100.95</v>
       </c>
-      <c r="P64" s="13">
+      <c r="Q64" s="13">
         <v>0.75280000000000002</v>
       </c>
-      <c r="Q64" s="13">
+      <c r="R64" s="13">
         <v>0.22889999999999999</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>1.44</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>1.62</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>493</v>
       </c>
@@ -7280,161 +7348,161 @@
       <c r="C65" t="s">
         <v>569</v>
       </c>
-      <c r="D65" s="8">
+      <c r="E65" s="8">
         <v>46173</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>550</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>551</v>
       </c>
-      <c r="G65" s="8">
+      <c r="H65" s="8">
         <v>45535</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>25</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>100</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>76.599999999999994</v>
       </c>
-      <c r="K65" s="8">
+      <c r="L65" s="8">
         <v>45471</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>554</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>0.95</v>
       </c>
-      <c r="N65" s="13">
+      <c r="O65" s="13">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>100.95</v>
       </c>
-      <c r="P65" s="13">
+      <c r="Q65" s="13">
         <v>0.75880000000000003</v>
       </c>
-      <c r="Q65" s="13">
+      <c r="R65" s="13">
         <v>0.22289999999999999</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>1.44</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>1.62</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>601</v>
       </c>
@@ -7457,7 +7525,7 @@
       <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -7480,7 +7548,7 @@
     <col min="24" max="25" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7557,7 +7625,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7634,7 +7702,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -7711,7 +7779,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -7788,7 +7856,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -7850,7 +7918,7 @@
         <v>1739.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -7912,7 +7980,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -7974,7 +8042,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -8036,7 +8104,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -8113,7 +8181,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -8190,7 +8258,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -8258,7 +8326,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -8335,7 +8403,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -8412,7 +8480,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -8489,7 +8557,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -8566,7 +8634,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -8643,7 +8711,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -8720,7 +8788,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -8797,7 +8865,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -8874,7 +8942,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -8951,7 +9019,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -9028,7 +9096,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -9105,7 +9173,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -9182,7 +9250,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -9259,7 +9327,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -9336,7 +9404,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -9413,7 +9481,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -9490,7 +9558,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -9567,7 +9635,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -9644,7 +9712,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -9721,7 +9789,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -9798,7 +9866,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -9875,7 +9943,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -9952,7 +10020,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>278</v>
       </c>
@@ -10029,7 +10097,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>278</v>
       </c>
@@ -10106,7 +10174,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>278</v>
       </c>
@@ -10183,7 +10251,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -10260,7 +10328,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -10337,7 +10405,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -10414,7 +10482,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>278</v>
       </c>
@@ -10491,7 +10559,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>278</v>
       </c>
@@ -10568,7 +10636,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -10645,7 +10713,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>377</v>
       </c>
@@ -10719,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>377</v>
       </c>
@@ -10793,7 +10861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>377</v>
       </c>
@@ -10867,7 +10935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>377</v>
       </c>
@@ -10941,7 +11009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -11015,7 +11083,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>377</v>
       </c>
@@ -11089,7 +11157,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>377</v>
       </c>
@@ -11163,7 +11231,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>377</v>
       </c>
@@ -11237,7 +11305,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>439</v>
       </c>
@@ -11314,7 +11382,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>439</v>
       </c>
@@ -11391,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>439</v>
       </c>
@@ -11468,7 +11536,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>473</v>
       </c>
@@ -11545,7 +11613,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>473</v>
       </c>
@@ -11622,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>493</v>
       </c>
@@ -11699,7 +11767,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>493</v>
       </c>
@@ -11776,7 +11844,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>493</v>
       </c>
@@ -11853,7 +11921,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>493</v>
       </c>
@@ -11930,7 +11998,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -12007,7 +12075,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>493</v>
       </c>
@@ -12084,7 +12152,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>493</v>
       </c>
@@ -12161,7 +12229,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>493</v>
       </c>
@@ -12238,7 +12306,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>493</v>
       </c>
@@ -12315,7 +12383,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>493</v>
       </c>
@@ -12409,15 +12477,15 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>377</v>
       </c>
@@ -12440,7 +12508,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>377</v>
       </c>
@@ -12463,7 +12531,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>377</v>
       </c>
@@ -12486,7 +12554,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>377</v>
       </c>
@@ -12509,7 +12577,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>377</v>
       </c>
@@ -12532,7 +12600,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>377</v>
       </c>
@@ -12555,7 +12623,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>377</v>
       </c>
@@ -12578,7 +12646,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>278</v>
       </c>
@@ -12595,7 +12663,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>278</v>
       </c>
@@ -12612,7 +12680,7 @@
         <v>-0.1668</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>278</v>
       </c>
@@ -12629,7 +12697,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>278</v>
       </c>
@@ -12666,7 +12734,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>278</v>
       </c>
@@ -12703,7 +12771,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>377</v>
       </c>
@@ -12739,7 +12807,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>278</v>
       </c>
@@ -12776,7 +12844,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>377</v>
       </c>
@@ -12813,7 +12881,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>377</v>
       </c>
@@ -12850,7 +12918,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>377</v>
       </c>
@@ -12887,7 +12955,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>278</v>
       </c>
@@ -12924,7 +12992,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>377</v>
       </c>
@@ -12961,7 +13029,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>377</v>
       </c>
@@ -12998,7 +13066,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>377</v>
       </c>
@@ -13035,7 +13103,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="6"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>377</v>
       </c>
@@ -13072,7 +13140,7 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>278</v>
       </c>
@@ -13109,7 +13177,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="6"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>278</v>
       </c>
@@ -13146,7 +13214,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -13183,7 +13251,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="6"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -13220,7 +13288,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -13257,7 +13325,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -13274,7 +13342,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>278</v>
       </c>
@@ -13291,7 +13359,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>278</v>
       </c>
@@ -13308,7 +13376,7 @@
         <v>-0.1668</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>278</v>
       </c>
@@ -13325,7 +13393,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>278</v>
       </c>
@@ -13342,7 +13410,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>278</v>
       </c>
@@ -13359,7 +13427,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>377</v>
       </c>
@@ -13383,7 +13451,7 @@
         <v>1.0054794520547945</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>278</v>
       </c>
@@ -13400,7 +13468,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>377</v>
       </c>
@@ -13424,7 +13492,7 @@
         <v>1.4657534246575343</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>377</v>
       </c>
@@ -13448,7 +13516,7 @@
         <v>1.7561643835616438</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>377</v>
       </c>
@@ -13472,7 +13540,7 @@
         <v>2.0054794520547947</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>278</v>
       </c>
@@ -13489,7 +13557,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>377</v>
       </c>
@@ -13513,7 +13581,7 @@
         <v>2.4657534246575343</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>377</v>
       </c>
@@ -13537,7 +13605,7 @@
         <v>3.0054794520547947</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>377</v>
       </c>
@@ -13561,7 +13629,7 @@
         <v>3.4657534246575343</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>377</v>
       </c>
@@ -13585,7 +13653,7 @@
         <v>4.0082191780821921</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>278</v>
       </c>
@@ -13602,7 +13670,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>278</v>
       </c>
@@ -13619,7 +13687,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
@@ -13636,7 +13704,7 @@
         <v>7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
@@ -13653,7 +13721,7 @@
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -13690,30 +13758,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EB33B5-3159-4480-BE34-6996F76CA9E9}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="A2:M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13760,7 +13828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -13807,7 +13875,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -13854,7 +13922,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -13901,7 +13969,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>278</v>
       </c>
@@ -13948,7 +14016,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>278</v>
       </c>
@@ -13995,7 +14063,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>278</v>
       </c>
@@ -14042,7 +14110,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>278</v>
       </c>
@@ -14089,7 +14157,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>278</v>
       </c>
@@ -14136,7 +14204,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
@@ -14183,7 +14251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>377</v>
       </c>
@@ -14230,7 +14298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>377</v>
       </c>
@@ -14277,7 +14345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>377</v>
       </c>
@@ -14324,7 +14392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>377</v>
       </c>
@@ -14371,7 +14439,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>377</v>
       </c>
@@ -14418,7 +14486,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>377</v>
       </c>

--- a/bin/tabla_bonos_reacomodada.xlsx
+++ b/bin/tabla_bonos_reacomodada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D75419E-9937-407A-8E0E-2C459D2D8F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D5163-98AD-44A3-B9DF-92127A189CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -3094,40 +3094,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaBonos" displayName="TablaBonos" ref="A1:T65">
   <autoFilter ref="A1:T65" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Bonos CUASIPAR"/>
-        <filter val="Bonos Discount"/>
-        <filter val="Bonos PAR"/>
-        <filter val="CER (cupón)"/>
-        <filter val="CER cupón cero"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CUAP"/>
-        <filter val="DICP"/>
-        <filter val="DIP0"/>
-        <filter val="PAP0"/>
-        <filter val="PARP"/>
-        <filter val="T2X4"/>
-        <filter val="T2X5"/>
-        <filter val="T5X4"/>
-        <filter val="TC25P"/>
-        <filter val="TX25"/>
-        <filter val="TX26"/>
-        <filter val="TX28"/>
-        <filter val="TZX25"/>
-        <filter val="TZX26"/>
-        <filter val="TZX27"/>
-        <filter val="TZX28"/>
-        <filter val="TZXD5"/>
-        <filter val="TZXD6"/>
-        <filter val="TZXD7"/>
-        <filter val="TZXM6"/>
-      </filters>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T21">
+    <sortCondition descending="1" ref="E1:E65"/>
+  </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sección"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción"/>
@@ -3475,9 +3450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="E1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3563,19 +3538,19 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8">
         <v>37986</v>
       </c>
       <c r="E2" s="8">
-        <v>50770</v>
+        <v>53327</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -3584,7 +3559,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="8">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -3593,51 +3568,51 @@
         <v>100</v>
       </c>
       <c r="K2">
-        <v>16340</v>
+        <v>20230</v>
       </c>
       <c r="L2" s="8">
         <v>45471</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N2">
-        <v>124.381</v>
+        <v>3.5489999999999999</v>
       </c>
       <c r="O2" s="13">
-        <v>3.0300000000000001E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="P2">
-        <v>27924.13</v>
+        <v>38606.080000000002</v>
       </c>
       <c r="Q2" s="13">
-        <v>0.58520000000000005</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="R2" s="13">
-        <v>8.6400000000000005E-2</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="S2">
-        <v>7.96</v>
+        <v>10.51</v>
       </c>
       <c r="T2">
-        <v>9.2799999999999994</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8">
         <v>37986</v>
       </c>
       <c r="E3" s="8">
-        <v>48944</v>
+        <v>50770</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -3646,60 +3621,60 @@
         <v>23</v>
       </c>
       <c r="H3" s="8">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>31250</v>
+        <v>16340</v>
       </c>
       <c r="L3" s="8">
         <v>45471</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N3">
-        <v>5.431</v>
+        <v>124.381</v>
       </c>
       <c r="O3" s="13">
-        <v>6.2600000000000003E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="P3">
-        <v>33544.160000000003</v>
+        <v>27924.13</v>
       </c>
       <c r="Q3" s="13">
-        <v>0.93159999999999998</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="R3" s="13">
-        <v>7.7200000000000005E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="S3">
-        <v>3.97</v>
+        <v>7.96</v>
       </c>
       <c r="T3">
-        <v>4.66</v>
+        <v>9.2799999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D4" s="8">
         <v>37986</v>
       </c>
       <c r="E4" s="8">
-        <v>53327</v>
+        <v>50770</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -3708,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="8">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -3717,249 +3692,261 @@
         <v>100</v>
       </c>
       <c r="K4">
-        <v>20230</v>
+        <v>16480</v>
       </c>
       <c r="L4" s="8">
         <v>45471</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N4">
-        <v>3.5489999999999999</v>
+        <v>124.381</v>
       </c>
       <c r="O4" s="13">
-        <v>6.3200000000000006E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="P4">
-        <v>38606.080000000002</v>
+        <v>27924.13</v>
       </c>
       <c r="Q4" s="13">
-        <v>0.52400000000000002</v>
+        <v>0.59019999999999995</v>
       </c>
       <c r="R4" s="13">
-        <v>9.0700000000000003E-2</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="S4">
-        <v>10.51</v>
+        <v>7.98</v>
       </c>
       <c r="T4">
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="D5" s="8">
+        <v>37986</v>
       </c>
       <c r="E5" s="8">
-        <v>49658</v>
+        <v>48944</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H5" s="8">
-        <v>46006</v>
+        <v>45657</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>95</v>
       </c>
       <c r="K5">
-        <v>1739.5</v>
+        <v>31250</v>
       </c>
       <c r="L5" s="8">
         <v>45471</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="N5">
+        <v>5.431</v>
+      </c>
+      <c r="O5" s="13">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="P5">
+        <v>33544.160000000003</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="R5" s="13">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="S5">
+        <v>3.97</v>
+      </c>
+      <c r="T5">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="D6" s="8">
+        <v>37986</v>
       </c>
       <c r="E6" s="8">
-        <v>49658</v>
+        <v>48944</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H6" s="8">
-        <v>46006</v>
+        <v>45657</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>95</v>
       </c>
       <c r="K6">
-        <v>6.1</v>
+        <v>31540</v>
       </c>
       <c r="L6" s="8">
         <v>45471</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>5.431</v>
+      </c>
+      <c r="O6" s="13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P6">
+        <v>33544.160000000003</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="R6" s="13">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="S6">
+        <v>3.99</v>
+      </c>
+      <c r="T6">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>356</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44077</v>
       </c>
       <c r="E7" s="8">
-        <v>49658</v>
+        <v>47066</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H7" s="8">
-        <v>46006</v>
+        <v>45605</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>3200</v>
+        <v>1488</v>
       </c>
       <c r="L7" s="8">
         <v>45471</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="N7">
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="O7" s="13">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="P7">
+        <v>1799.58</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="R7" s="13">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="S7">
+        <v>2.16</v>
+      </c>
+      <c r="T7">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>402</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45323</v>
       </c>
       <c r="E8" s="8">
-        <v>49658</v>
+        <v>46934</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="8">
-        <v>46006</v>
+        <v>46934</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
+        <v>381</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
       </c>
       <c r="K8">
-        <v>9000</v>
+        <v>148</v>
       </c>
       <c r="L8" s="8">
         <v>45471</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="N8" t="s">
         <v>66</v>
@@ -3967,182 +3954,185 @@
       <c r="O8" t="s">
         <v>66</v>
       </c>
-      <c r="P8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" t="s">
-        <v>66</v>
+      <c r="P8">
+        <v>201.87</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="R8" s="13">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="S8">
+        <v>3.84</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="D9" s="8">
-        <v>37986</v>
+        <v>45366</v>
       </c>
       <c r="E9" s="8">
-        <v>50770</v>
+        <v>46736</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H9" s="8">
-        <v>45565</v>
+        <v>46736</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>16480</v>
+        <v>115.5</v>
       </c>
       <c r="L9" s="8">
         <v>45471</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9">
-        <v>124.381</v>
-      </c>
-      <c r="O9" s="13">
-        <v>3.0099999999999998E-2</v>
+        <v>383</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
       </c>
       <c r="P9">
-        <v>27924.13</v>
+        <v>149.24</v>
       </c>
       <c r="Q9" s="13">
-        <v>0.59019999999999995</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="R9" s="13">
-        <v>8.5300000000000001E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="S9">
-        <v>7.98</v>
+        <v>3.33</v>
       </c>
       <c r="T9">
-        <v>9.2799999999999994</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="D10" s="8">
-        <v>37986</v>
+        <v>45323</v>
       </c>
       <c r="E10" s="8">
-        <v>48944</v>
+        <v>46568</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H10" s="8">
-        <v>45657</v>
+        <v>46568</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="J10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>31540</v>
+        <v>170</v>
       </c>
       <c r="L10" s="8">
         <v>45471</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10">
-        <v>5.431</v>
-      </c>
-      <c r="O10" s="13">
-        <v>6.2E-2</v>
+        <v>383</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
       </c>
       <c r="P10">
-        <v>33544.160000000003</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="13">
-        <v>0.94030000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="R10" s="13">
-        <v>7.4800000000000005E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="S10">
-        <v>3.99</v>
+        <v>2.91</v>
       </c>
       <c r="T10">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>417</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45366</v>
       </c>
       <c r="E11" s="8">
-        <v>49658</v>
+        <v>46371</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="G11" t="s">
         <v>66</v>
       </c>
       <c r="H11" s="8">
-        <v>46006</v>
+        <v>46371</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
+        <v>381</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>2300</v>
+        <v>128</v>
       </c>
       <c r="L11" s="8">
         <v>45471</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -4151,278 +4141,293 @@
         <v>66</v>
       </c>
       <c r="P11">
-        <v>62.627049999999997</v>
+        <v>149.24</v>
       </c>
       <c r="Q11" s="13">
-        <v>2.7400000000000001E-2</v>
+        <v>0.85770000000000002</v>
       </c>
       <c r="R11" s="13">
-        <v>2.8308</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="S11">
-        <v>0.41</v>
-      </c>
-      <c r="T11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>2.38</v>
+      </c>
+      <c r="T11">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>346</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44078</v>
       </c>
       <c r="E12" s="8">
-        <v>47308</v>
+        <v>46335</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="8">
-        <v>45482</v>
+        <v>45605</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>74220</v>
+        <v>1729</v>
       </c>
       <c r="L12" s="8">
         <v>45471</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>349</v>
       </c>
       <c r="N12">
-        <v>0.47799999999999998</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="O12" s="13">
-        <v>0.3508</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="P12">
-        <v>100.48</v>
+        <v>1799.52</v>
       </c>
       <c r="Q12" s="13">
-        <v>0.5504</v>
+        <v>0.96079999999999999</v>
       </c>
       <c r="R12" s="13">
-        <v>0.28589999999999999</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="T12">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>388</v>
+      </c>
+      <c r="D13" s="8">
+        <v>45323</v>
       </c>
       <c r="E13" s="8">
-        <v>47308</v>
+        <v>46203</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H13" s="8">
-        <v>45482</v>
+        <v>46203</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>55.7</v>
+        <v>181.75</v>
       </c>
       <c r="L13" s="8">
         <v>45471</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="O13" s="13">
-        <v>9.1300000000000006E-2</v>
+        <v>383</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
       </c>
       <c r="P13">
-        <v>100.48</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="13">
-        <v>0.5544</v>
+        <v>1.8174999999999999</v>
       </c>
       <c r="R13" s="13">
-        <v>0.28179999999999999</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="S13">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T13">
-        <v>7.22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>432</v>
+      </c>
+      <c r="D14" s="19">
+        <v>45412</v>
       </c>
       <c r="E14" s="8">
-        <v>47673</v>
+        <v>46112</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H14" s="8">
-        <v>45482</v>
+        <v>46112</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>74340</v>
+        <v>109.5</v>
       </c>
       <c r="L14" s="8">
         <v>45471</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N14">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="O14" s="13">
-        <v>6.6000000000000003E-2</v>
+        <v>383</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
       </c>
       <c r="P14">
-        <v>100.36</v>
+        <v>120.02</v>
       </c>
       <c r="Q14" s="13">
-        <v>0.55200000000000005</v>
+        <v>0.9123</v>
       </c>
       <c r="R14" s="13">
-        <v>0.25440000000000002</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="S14">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="T14">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>410</v>
+      </c>
+      <c r="D15" s="8">
+        <v>45323</v>
       </c>
       <c r="E15" s="8">
-        <v>47673</v>
+        <v>46006</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H15" s="8">
-        <v>45482</v>
+        <v>46006</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>55.15</v>
+        <v>136.75</v>
       </c>
       <c r="L15" s="8">
         <v>45471</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="O15" s="13">
-        <v>8.7900000000000006E-2</v>
+        <v>383</v>
+      </c>
+      <c r="N15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
       </c>
       <c r="P15">
-        <v>100.36</v>
+        <v>150.06</v>
       </c>
       <c r="Q15" s="13">
-        <v>0.54949999999999999</v>
+        <v>0.9113</v>
       </c>
       <c r="R15" s="13">
-        <v>0.25669999999999998</v>
+        <v>6.59E-2</v>
       </c>
       <c r="S15">
-        <v>2.13</v>
+        <v>1.41</v>
       </c>
       <c r="T15">
-        <v>9.1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>335</v>
+      </c>
+      <c r="D16" s="8">
+        <v>45800</v>
       </c>
       <c r="E16" s="8">
-        <v>49499</v>
+        <v>45970</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="8">
-        <v>45482</v>
+        <v>45605</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -4431,116 +4436,122 @@
         <v>100</v>
       </c>
       <c r="K16">
-        <v>59430</v>
+        <v>850</v>
       </c>
       <c r="L16" s="8">
         <v>45471</v>
       </c>
       <c r="M16" t="s">
-        <v>142</v>
+        <v>338</v>
       </c>
       <c r="N16">
-        <v>1.732</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="O16" s="13">
-        <v>8.5199999999999998E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="P16">
-        <v>101.73</v>
+        <v>877.69</v>
       </c>
       <c r="Q16" s="13">
-        <v>0.43530000000000002</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="R16" s="13">
-        <v>0.18579999999999999</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="S16">
-        <v>5.55</v>
+        <v>1.32</v>
       </c>
       <c r="T16">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>379</v>
+      </c>
+      <c r="D17" s="8">
+        <v>45323</v>
       </c>
       <c r="E17" s="8">
-        <v>49499</v>
+        <v>45838</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H17" s="8">
-        <v>45482</v>
+        <v>45838</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>44.07</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="L17" s="8">
         <v>45471</v>
       </c>
       <c r="M17" t="s">
-        <v>142</v>
-      </c>
-      <c r="N17">
-        <v>1.732</v>
-      </c>
-      <c r="O17" s="13">
-        <v>8.1699999999999995E-2</v>
+        <v>383</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
       </c>
       <c r="P17">
-        <v>101.73</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="13">
-        <v>0.43319999999999997</v>
+        <v>1.587</v>
       </c>
       <c r="R17" s="13">
-        <v>0.18679999999999999</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="S17">
-        <v>5.54</v>
+        <v>0.98</v>
       </c>
       <c r="T17">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>324</v>
+      </c>
+      <c r="D18" s="8">
+        <v>43217</v>
       </c>
       <c r="E18" s="8">
-        <v>50414</v>
+        <v>45774</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="8">
-        <v>45482</v>
+        <v>45592</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
@@ -4549,57 +4560,60 @@
         <v>100</v>
       </c>
       <c r="K18">
-        <v>60800</v>
+        <v>4520</v>
       </c>
       <c r="L18" s="8">
         <v>45471</v>
       </c>
       <c r="M18" t="s">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="N18">
-        <v>2.0310000000000001</v>
+        <v>31.742999999999999</v>
       </c>
       <c r="O18" s="13">
-        <v>1.8200000000000001E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="P18">
-        <v>102.03</v>
+        <v>4495.54</v>
       </c>
       <c r="Q18" s="13">
-        <v>0.44400000000000001</v>
+        <v>1.0054000000000001</v>
       </c>
       <c r="R18" s="13">
-        <v>0.2109</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="S18">
-        <v>4.4400000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="T18">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>313</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44971</v>
       </c>
       <c r="E19" s="8">
-        <v>50414</v>
+        <v>45702</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="8">
-        <v>45482</v>
+        <v>45518</v>
       </c>
       <c r="I19" t="s">
         <v>25</v>
@@ -4608,7 +4622,7 @@
         <v>100</v>
       </c>
       <c r="K19">
-        <v>45.3</v>
+        <v>509.6</v>
       </c>
       <c r="L19" s="8">
         <v>45471</v>
@@ -4617,452 +4631,458 @@
         <v>162</v>
       </c>
       <c r="N19">
-        <v>2.0310000000000001</v>
+        <v>8.0549999999999997</v>
       </c>
       <c r="O19" s="13">
-        <v>1.8100000000000002E-2</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="P19">
-        <v>102.03</v>
+        <v>506.08</v>
       </c>
       <c r="Q19" s="13">
-        <v>0.44400000000000001</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="R19" s="13">
-        <v>0.2109</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="S19">
-        <v>4.4400000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="T19">
-        <v>2.74</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>291</v>
+      </c>
+      <c r="D20" s="8">
+        <v>45348</v>
       </c>
       <c r="E20" s="8">
-        <v>51691</v>
+        <v>45499</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="G20" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="8">
-        <v>45482</v>
+        <v>45499</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>55380</v>
+        <v>1543</v>
       </c>
       <c r="L20" s="8">
         <v>45471</v>
       </c>
       <c r="M20" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="N20">
-        <v>1.6719999999999999</v>
+        <v>10.090999999999999</v>
       </c>
       <c r="O20" s="13">
-        <v>1.3599999999999999E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="P20">
-        <v>101.67</v>
+        <v>1522.21</v>
       </c>
       <c r="Q20" s="13">
-        <v>0.40589999999999998</v>
+        <v>1.0137</v>
       </c>
       <c r="R20" s="13">
-        <v>0.182</v>
+        <v>-0.1668</v>
       </c>
       <c r="S20">
-        <v>5.55</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T20">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>280</v>
+      </c>
+      <c r="D21" s="8">
+        <v>45199</v>
       </c>
       <c r="E21" s="8">
-        <v>51691</v>
+        <v>45495</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="G21" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="8">
-        <v>45482</v>
+        <v>45639</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>41.39</v>
+        <v>411</v>
       </c>
       <c r="L21" s="8">
         <v>45471</v>
       </c>
       <c r="M21" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="N21">
-        <v>1.6719999999999999</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="O21" s="13">
-        <v>1.37E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="P21">
-        <v>101.67</v>
+        <v>405.22</v>
       </c>
       <c r="Q21" s="13">
-        <v>0.40710000000000002</v>
+        <v>1.0143</v>
       </c>
       <c r="R21" s="13">
-        <v>0.18140000000000001</v>
+        <v>1.06E-2</v>
       </c>
       <c r="S21">
-        <v>5.56</v>
+        <v>0.46</v>
       </c>
       <c r="T21">
-        <v>3.13</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="E22" s="8">
-        <v>47308</v>
+        <v>49658</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H22" s="8">
-        <v>45482</v>
+        <v>46006</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="J22">
-        <v>100</v>
+      <c r="J22" t="s">
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>77770</v>
+        <v>1739.5</v>
       </c>
       <c r="L22" s="8">
         <v>45471</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
-      </c>
-      <c r="N22">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="O22" s="13">
-        <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="P22">
-        <v>100.48</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>0.57669999999999999</v>
-      </c>
-      <c r="R22" s="13">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="S22">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="T22">
-        <v>9.1</v>
+        <v>66</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8">
-        <v>47308</v>
+        <v>49658</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H23" s="8">
-        <v>45482</v>
+        <v>46006</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
       </c>
-      <c r="J23">
-        <v>100</v>
+      <c r="J23" t="s">
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>58.14</v>
+        <v>6.1</v>
       </c>
       <c r="L23" s="8">
         <v>45471</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
-      </c>
-      <c r="N23">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="O23" s="13">
-        <v>8.5599999999999996E-2</v>
-      </c>
-      <c r="P23">
-        <v>100.48</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>0.5786</v>
-      </c>
-      <c r="R23" s="13">
-        <v>0.25769999999999998</v>
-      </c>
-      <c r="S23">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="T23">
-        <v>7.58</v>
+        <v>66</v>
+      </c>
+      <c r="N23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="E24" s="8">
-        <v>47673</v>
+        <v>49658</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H24" s="8">
-        <v>45482</v>
+        <v>46006</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>76540</v>
+        <v>3200</v>
       </c>
       <c r="L24" s="8">
         <v>45471</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="O24" s="13">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="P24">
-        <v>100.36</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>0.56830000000000003</v>
-      </c>
-      <c r="R24" s="13">
-        <v>0.2394</v>
-      </c>
-      <c r="S24">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="T24">
-        <v>1.35</v>
+        <v>66</v>
+      </c>
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="E25" s="8">
-        <v>47673</v>
+        <v>49658</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H25" s="8">
-        <v>45482</v>
+        <v>46006</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>56.76</v>
+        <v>9000</v>
       </c>
       <c r="L25" s="8">
         <v>45471</v>
       </c>
       <c r="M25" t="s">
-        <v>124</v>
-      </c>
-      <c r="N25">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="O25" s="13">
-        <v>9.8199999999999996E-2</v>
-      </c>
-      <c r="P25">
-        <v>100.36</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>0.56559999999999999</v>
-      </c>
-      <c r="R25" s="13">
-        <v>0.24179999999999999</v>
-      </c>
-      <c r="S25">
-        <v>2.17</v>
-      </c>
-      <c r="T25">
-        <v>7.22</v>
+        <v>66</v>
+      </c>
+      <c r="N25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25" t="s">
+        <v>66</v>
+      </c>
+      <c r="T25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="E26" s="8">
-        <v>49499</v>
+        <v>49658</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H26" s="8">
-        <v>45482</v>
+        <v>46006</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
-      <c r="J26">
-        <v>100</v>
+      <c r="J26" t="s">
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>59400</v>
+        <v>2300</v>
       </c>
       <c r="L26" s="8">
         <v>45471</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
-      </c>
-      <c r="N26">
-        <v>1.732</v>
-      </c>
-      <c r="O26" s="13">
-        <v>2.7199999999999998E-2</v>
+        <v>66</v>
+      </c>
+      <c r="N26" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
       </c>
       <c r="P26">
-        <v>101.73</v>
+        <v>62.627049999999997</v>
       </c>
       <c r="Q26" s="13">
-        <v>0.43509999999999999</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="R26" s="13">
-        <v>0.18590000000000001</v>
+        <v>2.8308</v>
       </c>
       <c r="S26">
-        <v>5.55</v>
-      </c>
-      <c r="T26">
-        <v>2.3199999999999998</v>
+        <v>0.41</v>
+      </c>
+      <c r="T26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="E27" s="8">
-        <v>49499</v>
+        <v>47308</v>
       </c>
       <c r="F27" t="s">
         <v>101</v>
@@ -5080,51 +5100,51 @@
         <v>100</v>
       </c>
       <c r="K27">
-        <v>44.1</v>
+        <v>74220</v>
       </c>
       <c r="L27" s="8">
         <v>45471</v>
       </c>
       <c r="M27" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="N27">
-        <v>1.732</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="O27" s="13">
-        <v>8.8099999999999998E-2</v>
+        <v>0.3508</v>
       </c>
       <c r="P27">
-        <v>101.73</v>
+        <v>100.48</v>
       </c>
       <c r="Q27" s="13">
-        <v>0.4335</v>
+        <v>0.5504</v>
       </c>
       <c r="R27" s="13">
-        <v>0.18659999999999999</v>
+        <v>0.28589999999999999</v>
       </c>
       <c r="S27">
-        <v>5.54</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>9.1</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="E28" s="8">
-        <v>50414</v>
+        <v>47308</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -5139,51 +5159,51 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>65190</v>
+        <v>55.7</v>
       </c>
       <c r="L28" s="8">
         <v>45471</v>
       </c>
       <c r="M28" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="N28">
-        <v>2.0310000000000001</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="O28" s="13">
-        <v>1.7399999999999999E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="P28">
-        <v>102.03</v>
+        <v>100.48</v>
       </c>
       <c r="Q28" s="13">
-        <v>0.47610000000000002</v>
+        <v>0.5544</v>
       </c>
       <c r="R28" s="13">
-        <v>0.19400000000000001</v>
+        <v>0.28179999999999999</v>
       </c>
       <c r="S28">
-        <v>4.6100000000000003</v>
+        <v>1.96</v>
       </c>
       <c r="T28">
-        <v>2.74</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="E29" s="8">
-        <v>50414</v>
+        <v>47673</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
         <v>23</v>
@@ -5192,57 +5212,57 @@
         <v>45482</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>48</v>
+        <v>74340</v>
       </c>
       <c r="L29" s="8">
         <v>45471</v>
       </c>
       <c r="M29" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="N29">
-        <v>2.0310000000000001</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="O29" s="13">
-        <v>1.7299999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="P29">
-        <v>102.03</v>
+        <v>100.36</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.47039999999999998</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="R29" s="13">
-        <v>0.19689999999999999</v>
+        <v>0.25440000000000002</v>
       </c>
       <c r="S29">
-        <v>4.58</v>
+        <v>2.13</v>
       </c>
       <c r="T29">
-        <v>2.74</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="E30" s="8">
-        <v>51691</v>
+        <v>47673</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
         <v>23</v>
@@ -5251,57 +5271,57 @@
         <v>45482</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>55710</v>
+        <v>55.15</v>
       </c>
       <c r="L30" s="8">
         <v>45471</v>
       </c>
       <c r="M30" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="N30">
-        <v>1.6719999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="O30" s="13">
-        <v>1.32E-2</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="P30">
-        <v>101.67</v>
+        <v>100.36</v>
       </c>
       <c r="Q30" s="13">
-        <v>0.4083</v>
+        <v>0.54949999999999999</v>
       </c>
       <c r="R30" s="13">
-        <v>0.18079999999999999</v>
+        <v>0.25669999999999998</v>
       </c>
       <c r="S30">
-        <v>5.56</v>
+        <v>2.13</v>
       </c>
       <c r="T30">
-        <v>3.13</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="E31" s="8">
-        <v>51691</v>
+        <v>49499</v>
       </c>
       <c r="F31" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
         <v>23</v>
@@ -5316,51 +5336,51 @@
         <v>100</v>
       </c>
       <c r="K31">
-        <v>40.5</v>
+        <v>59430</v>
       </c>
       <c r="L31" s="8">
         <v>45471</v>
       </c>
       <c r="M31" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="N31">
-        <v>1.6719999999999999</v>
+        <v>1.732</v>
       </c>
       <c r="O31" s="13">
-        <v>1.3299999999999999E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="P31">
-        <v>101.67</v>
+        <v>101.73</v>
       </c>
       <c r="Q31" s="13">
-        <v>0.39829999999999999</v>
+        <v>0.43530000000000002</v>
       </c>
       <c r="R31" s="13">
-        <v>0.1857</v>
+        <v>0.18579999999999999</v>
       </c>
       <c r="S31">
-        <v>5.49</v>
+        <v>5.55</v>
       </c>
       <c r="T31">
-        <v>3.13</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="E32" s="8">
-        <v>53517</v>
+        <v>49499</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
         <v>23</v>
@@ -5375,7 +5395,7 @@
         <v>100</v>
       </c>
       <c r="K32">
-        <v>61890</v>
+        <v>44.07</v>
       </c>
       <c r="L32" s="8">
         <v>45471</v>
@@ -5387,45 +5407,45 @@
         <v>1.732</v>
       </c>
       <c r="O32" s="13">
-        <v>8.5199999999999998E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="P32">
         <v>101.73</v>
       </c>
       <c r="Q32" s="13">
-        <v>0.45329999999999998</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="R32" s="13">
-        <v>0.18260000000000001</v>
+        <v>0.18679999999999999</v>
       </c>
       <c r="S32">
-        <v>4.59</v>
+        <v>5.54</v>
       </c>
       <c r="T32">
-        <v>7.58</v>
+        <v>10.029999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="E33" s="8">
-        <v>46312</v>
+        <v>50414</v>
       </c>
       <c r="F33" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="G33" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="8">
-        <v>45582</v>
+        <v>45482</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
@@ -5434,69 +5454,66 @@
         <v>100</v>
       </c>
       <c r="K33">
-        <v>63.75</v>
+        <v>60800</v>
       </c>
       <c r="L33" s="8">
         <v>45471</v>
       </c>
       <c r="M33" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="N33">
-        <v>3.1859999999999999</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="O33" s="13">
-        <v>8.3699999999999997E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="P33">
-        <v>103.19</v>
+        <v>102.03</v>
       </c>
       <c r="Q33" s="13">
-        <v>0.61780000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="R33" s="13">
-        <v>0.49349999999999999</v>
+        <v>0.2109</v>
       </c>
       <c r="S33">
-        <v>1.48</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="T33">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
-      </c>
-      <c r="D34" s="8">
-        <v>45199</v>
+        <v>170</v>
       </c>
       <c r="E34" s="8">
-        <v>45495</v>
+        <v>50414</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="G34" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="8">
-        <v>45639</v>
+        <v>45482</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>411</v>
+        <v>45.3</v>
       </c>
       <c r="L34" s="8">
         <v>45471</v>
@@ -5505,172 +5522,166 @@
         <v>162</v>
       </c>
       <c r="N34">
-        <v>0.85899999999999999</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="O34" s="13">
-        <v>4.19E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="P34">
-        <v>405.22</v>
+        <v>102.03</v>
       </c>
       <c r="Q34" s="13">
-        <v>1.0143</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="R34" s="13">
-        <v>1.06E-2</v>
+        <v>0.2109</v>
       </c>
       <c r="S34">
-        <v>0.46</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="T34">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>291</v>
-      </c>
-      <c r="D35" s="8">
-        <v>45348</v>
+        <v>174</v>
       </c>
       <c r="E35" s="8">
-        <v>45499</v>
+        <v>51691</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="8">
-        <v>45499</v>
+        <v>45482</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>1543</v>
+        <v>55380</v>
       </c>
       <c r="L35" s="8">
         <v>45471</v>
       </c>
       <c r="M35" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="N35">
-        <v>10.090999999999999</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="O35" s="13">
-        <v>1.5299999999999999E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="P35">
-        <v>1522.21</v>
+        <v>101.67</v>
       </c>
       <c r="Q35" s="13">
-        <v>1.0137</v>
+        <v>0.40589999999999998</v>
       </c>
       <c r="R35" s="13">
-        <v>-0.1668</v>
+        <v>0.182</v>
       </c>
       <c r="S35">
-        <v>7.0000000000000007E-2</v>
+        <v>5.55</v>
       </c>
       <c r="T35">
-        <v>7.0000000000000007E-2</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="E36" s="8">
-        <v>45579</v>
+        <v>51691</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="8">
-        <v>45579</v>
+        <v>45482</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>510.2</v>
+        <v>41.39</v>
       </c>
       <c r="L36" s="8">
         <v>45471</v>
       </c>
       <c r="M36" t="s">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="N36">
-        <v>4.2610000000000001</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="O36" s="13">
-        <v>3.9399999999999998E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="P36">
-        <v>502.29</v>
+        <v>101.67</v>
       </c>
       <c r="Q36" s="13">
-        <v>1.0158</v>
+        <v>0.40710000000000002</v>
       </c>
       <c r="R36" s="13">
-        <v>-1.4999999999999999E-2</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="S36">
-        <v>0.28999999999999998</v>
+        <v>5.56</v>
       </c>
       <c r="T36">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D37" s="8">
-        <v>44971</v>
+        <v>193</v>
       </c>
       <c r="E37" s="8">
-        <v>45702</v>
+        <v>47308</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
       </c>
       <c r="H37" s="8">
-        <v>45518</v>
+        <v>45482</v>
       </c>
       <c r="I37" t="s">
         <v>25</v>
@@ -5679,60 +5690,57 @@
         <v>100</v>
       </c>
       <c r="K37">
-        <v>509.6</v>
+        <v>77770</v>
       </c>
       <c r="L37" s="8">
         <v>45471</v>
       </c>
       <c r="M37" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="N37">
-        <v>8.0549999999999997</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="O37" s="13">
-        <v>4.2200000000000001E-2</v>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="P37">
-        <v>506.08</v>
+        <v>100.48</v>
       </c>
       <c r="Q37" s="13">
-        <v>1.0069999999999999</v>
+        <v>0.57669999999999999</v>
       </c>
       <c r="R37" s="13">
-        <v>3.0800000000000001E-2</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="S37">
-        <v>0.6</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="T37">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>324</v>
-      </c>
-      <c r="D38" s="8">
-        <v>43217</v>
+        <v>199</v>
       </c>
       <c r="E38" s="8">
-        <v>45774</v>
+        <v>47308</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="8">
-        <v>45592</v>
+        <v>45482</v>
       </c>
       <c r="I38" t="s">
         <v>25</v>
@@ -5741,122 +5749,116 @@
         <v>100</v>
       </c>
       <c r="K38">
-        <v>4520</v>
+        <v>58.14</v>
       </c>
       <c r="L38" s="8">
         <v>45471</v>
       </c>
       <c r="M38" t="s">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="N38">
-        <v>31.742999999999999</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="O38" s="13">
-        <v>3.9800000000000002E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="P38">
-        <v>4495.54</v>
+        <v>100.48</v>
       </c>
       <c r="Q38" s="13">
-        <v>1.0054000000000001</v>
+        <v>0.5786</v>
       </c>
       <c r="R38" s="13">
-        <v>3.3399999999999999E-2</v>
+        <v>0.25769999999999998</v>
       </c>
       <c r="S38">
-        <v>0.8</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="T38">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
-      </c>
-      <c r="D39" s="8">
-        <v>45800</v>
+        <v>205</v>
       </c>
       <c r="E39" s="8">
-        <v>45970</v>
+        <v>47673</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="8">
-        <v>45605</v>
+        <v>45482</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>850</v>
+        <v>76540</v>
       </c>
       <c r="L39" s="8">
         <v>45471</v>
       </c>
       <c r="M39" t="s">
-        <v>338</v>
+        <v>124</v>
       </c>
       <c r="N39">
-        <v>2.2759999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="O39" s="13">
-        <v>1.8599999999999998E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="P39">
-        <v>877.69</v>
+        <v>100.36</v>
       </c>
       <c r="Q39" s="13">
-        <v>0.96850000000000003</v>
+        <v>0.56830000000000003</v>
       </c>
       <c r="R39" s="13">
-        <v>4.2599999999999999E-2</v>
+        <v>0.2394</v>
       </c>
       <c r="S39">
-        <v>1.32</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="T39">
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>346</v>
-      </c>
-      <c r="D40" s="8">
-        <v>44078</v>
+        <v>212</v>
       </c>
       <c r="E40" s="8">
-        <v>46335</v>
+        <v>47673</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="8">
-        <v>45605</v>
+        <v>45482</v>
       </c>
       <c r="I40" t="s">
         <v>41</v>
@@ -5865,51 +5867,48 @@
         <v>100</v>
       </c>
       <c r="K40">
-        <v>1729</v>
+        <v>56.76</v>
       </c>
       <c r="L40" s="8">
         <v>45471</v>
       </c>
       <c r="M40" t="s">
-        <v>349</v>
+        <v>124</v>
       </c>
       <c r="N40">
-        <v>5.1840000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="O40" s="13">
-        <v>2.0799999999999999E-2</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="P40">
-        <v>1799.52</v>
+        <v>100.36</v>
       </c>
       <c r="Q40" s="13">
-        <v>0.96079999999999999</v>
+        <v>0.56559999999999999</v>
       </c>
       <c r="R40" s="13">
-        <v>5.1200000000000002E-2</v>
+        <v>0.24179999999999999</v>
       </c>
       <c r="S40">
-        <v>1.29</v>
+        <v>2.17</v>
       </c>
       <c r="T40">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="8">
-        <v>44077</v>
+        <v>219</v>
       </c>
       <c r="E41" s="8">
-        <v>47066</v>
+        <v>49499</v>
       </c>
       <c r="F41" t="s">
         <v>101</v>
@@ -5918,40 +5917,40 @@
         <v>23</v>
       </c>
       <c r="H41" s="8">
-        <v>45605</v>
+        <v>45482</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J41">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>1488</v>
+        <v>59400</v>
       </c>
       <c r="L41" s="8">
         <v>45471</v>
       </c>
       <c r="M41" t="s">
-        <v>359</v>
+        <v>142</v>
       </c>
       <c r="N41">
-        <v>5.2480000000000002</v>
+        <v>1.732</v>
       </c>
       <c r="O41" s="13">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="P41">
-        <v>1799.58</v>
+        <v>101.73</v>
       </c>
       <c r="Q41" s="13">
-        <v>0.82689999999999997</v>
+        <v>0.43509999999999999</v>
       </c>
       <c r="R41" s="13">
-        <v>6.1899999999999997E-2</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="S41">
-        <v>2.16</v>
+        <v>5.55</v>
       </c>
       <c r="T41">
         <v>2.3199999999999998</v>
@@ -5959,16 +5958,16 @@
     </row>
     <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="E42" s="8">
-        <v>48182</v>
+        <v>49499</v>
       </c>
       <c r="F42" t="s">
         <v>101</v>
@@ -5977,7 +5976,7 @@
         <v>23</v>
       </c>
       <c r="H42" s="8">
-        <v>45626</v>
+        <v>45482</v>
       </c>
       <c r="I42" t="s">
         <v>25</v>
@@ -5986,530 +5985,506 @@
         <v>100</v>
       </c>
       <c r="K42">
-        <v>667.9</v>
+        <v>44.1</v>
       </c>
       <c r="L42" s="8">
         <v>45471</v>
       </c>
       <c r="M42" t="s">
-        <v>369</v>
+        <v>142</v>
       </c>
       <c r="N42">
-        <v>1.8560000000000001</v>
+        <v>1.732</v>
       </c>
       <c r="O42" s="13">
-        <v>3.2399999999999998E-2</v>
+        <v>8.8099999999999998E-2</v>
       </c>
       <c r="P42">
-        <v>864.12</v>
+        <v>101.73</v>
       </c>
       <c r="Q42" s="13">
-        <v>0.77290000000000003</v>
+        <v>0.4335</v>
       </c>
       <c r="R42" s="13">
-        <v>8.2000000000000003E-2</v>
+        <v>0.18659999999999999</v>
       </c>
       <c r="S42">
-        <v>4.51</v>
+        <v>5.54</v>
       </c>
       <c r="T42">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
-      </c>
-      <c r="D43" s="8">
-        <v>45323</v>
+        <v>231</v>
       </c>
       <c r="E43" s="8">
-        <v>45838</v>
+        <v>50414</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H43" s="8">
-        <v>45838</v>
+        <v>45482</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43">
-        <v>158.69999999999999</v>
+        <v>65190</v>
       </c>
       <c r="L43" s="8">
         <v>45471</v>
       </c>
       <c r="M43" t="s">
-        <v>383</v>
-      </c>
-      <c r="N43" t="s">
-        <v>66</v>
-      </c>
-      <c r="O43" t="s">
-        <v>66</v>
+        <v>162</v>
+      </c>
+      <c r="N43">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="O43" s="13">
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="P43">
-        <v>100</v>
+        <v>102.03</v>
       </c>
       <c r="Q43" s="13">
-        <v>1.587</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="R43" s="13">
-        <v>4.3799999999999999E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="S43">
-        <v>0.98</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="T43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>388</v>
-      </c>
-      <c r="D44" s="8">
-        <v>45323</v>
+        <v>237</v>
       </c>
       <c r="E44" s="8">
-        <v>46203</v>
+        <v>50414</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H44" s="8">
-        <v>46203</v>
+        <v>45482</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>181.75</v>
+        <v>48</v>
       </c>
       <c r="L44" s="8">
         <v>45471</v>
       </c>
       <c r="M44" t="s">
-        <v>383</v>
-      </c>
-      <c r="N44" t="s">
-        <v>66</v>
-      </c>
-      <c r="O44" t="s">
-        <v>66</v>
+        <v>162</v>
+      </c>
+      <c r="N44">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="O44" s="13">
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="P44">
-        <v>100</v>
+        <v>102.03</v>
       </c>
       <c r="Q44" s="13">
-        <v>1.8174999999999999</v>
+        <v>0.47039999999999998</v>
       </c>
       <c r="R44" s="13">
-        <v>5.3999999999999999E-2</v>
+        <v>0.19689999999999999</v>
       </c>
       <c r="S44">
-        <v>1.94</v>
+        <v>4.58</v>
       </c>
       <c r="T44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
-      </c>
-      <c r="D45" s="8">
-        <v>45323</v>
+        <v>244</v>
       </c>
       <c r="E45" s="8">
-        <v>46568</v>
+        <v>51691</v>
       </c>
       <c r="F45" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H45" s="8">
-        <v>46568</v>
+        <v>45482</v>
       </c>
       <c r="I45" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45">
-        <v>170</v>
+        <v>55710</v>
       </c>
       <c r="L45" s="8">
         <v>45471</v>
       </c>
       <c r="M45" t="s">
-        <v>383</v>
-      </c>
-      <c r="N45" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" t="s">
-        <v>66</v>
+        <v>178</v>
+      </c>
+      <c r="N45">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="O45" s="13">
+        <v>1.32E-2</v>
       </c>
       <c r="P45">
-        <v>100</v>
+        <v>101.67</v>
       </c>
       <c r="Q45" s="13">
-        <v>1.7</v>
+        <v>0.4083</v>
       </c>
       <c r="R45" s="13">
-        <v>5.8999999999999997E-2</v>
+        <v>0.18079999999999999</v>
       </c>
       <c r="S45">
-        <v>2.91</v>
+        <v>5.56</v>
       </c>
       <c r="T45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>402</v>
-      </c>
-      <c r="D46" s="8">
-        <v>45323</v>
+        <v>249</v>
       </c>
       <c r="E46" s="8">
-        <v>46934</v>
+        <v>51691</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H46" s="8">
-        <v>46934</v>
+        <v>45482</v>
       </c>
       <c r="I46" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>148</v>
+        <v>40.5</v>
       </c>
       <c r="L46" s="8">
         <v>45471</v>
       </c>
       <c r="M46" t="s">
-        <v>383</v>
-      </c>
-      <c r="N46" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" t="s">
-        <v>66</v>
+        <v>178</v>
+      </c>
+      <c r="N46">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="O46" s="13">
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="P46">
-        <v>201.87</v>
+        <v>101.67</v>
       </c>
       <c r="Q46" s="13">
-        <v>0.73319999999999996</v>
+        <v>0.39829999999999999</v>
       </c>
       <c r="R46" s="13">
-        <v>8.0699999999999994E-2</v>
+        <v>0.1857</v>
       </c>
       <c r="S46">
-        <v>3.84</v>
+        <v>5.49</v>
       </c>
       <c r="T46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="C47" t="s">
-        <v>410</v>
-      </c>
-      <c r="D47" s="8">
-        <v>45323</v>
+        <v>256</v>
       </c>
       <c r="E47" s="8">
-        <v>46006</v>
+        <v>53517</v>
       </c>
       <c r="F47" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H47" s="8">
-        <v>46006</v>
+        <v>45482</v>
       </c>
       <c r="I47" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47">
-        <v>136.75</v>
+        <v>61890</v>
       </c>
       <c r="L47" s="8">
         <v>45471</v>
       </c>
       <c r="M47" t="s">
-        <v>383</v>
-      </c>
-      <c r="N47" t="s">
-        <v>66</v>
-      </c>
-      <c r="O47" t="s">
-        <v>66</v>
+        <v>142</v>
+      </c>
+      <c r="N47">
+        <v>1.732</v>
+      </c>
+      <c r="O47" s="13">
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="P47">
-        <v>150.06</v>
+        <v>101.73</v>
       </c>
       <c r="Q47" s="13">
-        <v>0.9113</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="R47" s="13">
-        <v>6.59E-2</v>
+        <v>0.18260000000000001</v>
       </c>
       <c r="S47">
-        <v>1.41</v>
+        <v>4.59</v>
       </c>
       <c r="T47">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>377</v>
+        <v>263</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D48" s="8">
-        <v>45366</v>
+        <v>265</v>
       </c>
       <c r="E48" s="8">
-        <v>46371</v>
+        <v>46312</v>
       </c>
       <c r="F48" t="s">
         <v>267</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H48" s="8">
-        <v>46371</v>
+        <v>45582</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48">
-        <v>128</v>
+        <v>63.75</v>
       </c>
       <c r="L48" s="8">
         <v>45471</v>
       </c>
       <c r="M48" t="s">
-        <v>383</v>
-      </c>
-      <c r="N48" t="s">
-        <v>66</v>
-      </c>
-      <c r="O48" t="s">
-        <v>66</v>
+        <v>270</v>
+      </c>
+      <c r="N48">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="O48" s="13">
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="P48">
-        <v>149.24</v>
+        <v>103.19</v>
       </c>
       <c r="Q48" s="13">
-        <v>0.85770000000000002</v>
+        <v>0.61780000000000002</v>
       </c>
       <c r="R48" s="13">
-        <v>6.4500000000000002E-2</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="S48">
-        <v>2.38</v>
+        <v>1.48</v>
       </c>
       <c r="T48">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
-      </c>
-      <c r="D49" s="8">
-        <v>45366</v>
+        <v>302</v>
       </c>
       <c r="E49" s="8">
-        <v>46736</v>
+        <v>45579</v>
       </c>
       <c r="F49" t="s">
         <v>267</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H49" s="8">
-        <v>46736</v>
+        <v>45579</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49">
-        <v>115.5</v>
+        <v>510.2</v>
       </c>
       <c r="L49" s="8">
         <v>45471</v>
       </c>
       <c r="M49" t="s">
-        <v>383</v>
-      </c>
-      <c r="N49" t="s">
-        <v>66</v>
-      </c>
-      <c r="O49" t="s">
-        <v>66</v>
+        <v>305</v>
+      </c>
+      <c r="N49">
+        <v>4.2610000000000001</v>
+      </c>
+      <c r="O49" s="13">
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="P49">
-        <v>149.24</v>
+        <v>502.29</v>
       </c>
       <c r="Q49" s="13">
-        <v>0.77390000000000003</v>
+        <v>1.0158</v>
       </c>
       <c r="R49" s="13">
-        <v>7.6899999999999996E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="S49">
-        <v>3.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T49">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
-      </c>
-      <c r="D50" s="19">
-        <v>45412</v>
+        <v>366</v>
       </c>
       <c r="E50" s="8">
-        <v>46112</v>
+        <v>48182</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H50" s="8">
-        <v>46112</v>
+        <v>45626</v>
       </c>
       <c r="I50" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50">
-        <v>109.5</v>
+        <v>667.9</v>
       </c>
       <c r="L50" s="8">
         <v>45471</v>
       </c>
       <c r="M50" t="s">
-        <v>383</v>
-      </c>
-      <c r="N50" t="s">
-        <v>66</v>
-      </c>
-      <c r="O50" t="s">
-        <v>66</v>
+        <v>369</v>
+      </c>
+      <c r="N50">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="O50" s="13">
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="P50">
-        <v>120.02</v>
+        <v>864.12</v>
       </c>
       <c r="Q50" s="13">
-        <v>0.9123</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="R50" s="13">
-        <v>5.3900000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="S50">
-        <v>1.7</v>
+        <v>4.51</v>
       </c>
       <c r="T50">
-        <v>1.75</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
